--- a/outputs/3_effective_rates_will.xlsx
+++ b/outputs/3_effective_rates_will.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1161">
   <si>
     <t xml:space="preserve">tax_code</t>
   </si>
@@ -3071,9 +3071,6 @@
     <t xml:space="preserve">E 88</t>
   </si>
   <si>
-    <t xml:space="preserve">PLFD LIBRARY SPECIAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Municipal Fire</t>
   </si>
   <si>
@@ -3216,9 +3213,6 @@
   </si>
   <si>
     <t xml:space="preserve">VILLAGE CRETE RD &amp; BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAUK VILLAGE BOND</t>
   </si>
   <si>
     <t xml:space="preserve">CITY AURORA SSA 161</t>
@@ -19744,120 +19738,122 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>633</v>
+        <v>1018</v>
       </c>
       <c r="B4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>145500</v>
       </c>
       <c r="D4" t="n">
-        <v>16983579</v>
+        <v>1578927684</v>
       </c>
       <c r="E4" t="n">
-        <v>29076</v>
-      </c>
-      <c r="F4"/>
+        <v>25351386</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1093919241</v>
+      </c>
       <c r="G4" t="n">
-        <v>663497604</v>
+        <v>6470273937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B5" t="s">
         <v>1020</v>
       </c>
       <c r="C5" t="n">
-        <v>145500</v>
+        <v>27900</v>
       </c>
       <c r="D5" t="n">
-        <v>1578927684</v>
+        <v>210827166</v>
       </c>
       <c r="E5" t="n">
-        <v>25351386</v>
+        <v>2025189</v>
       </c>
       <c r="F5" t="n">
-        <v>1093919241</v>
+        <v>1261257672</v>
       </c>
       <c r="G5" t="n">
-        <v>6470273937</v>
+        <v>1284234318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B6" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C6" t="n">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>210827166</v>
+        <v>16171974</v>
       </c>
       <c r="E6" t="n">
-        <v>2025189</v>
+        <v>771282</v>
       </c>
       <c r="F6" t="n">
-        <v>1261257672</v>
+        <v>101943</v>
       </c>
       <c r="G6" t="n">
-        <v>1284234318</v>
+        <v>778213752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B7" t="s">
         <v>1023</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>145500</v>
       </c>
       <c r="D7" t="n">
-        <v>16171974</v>
+        <v>1592065251</v>
       </c>
       <c r="E7" t="n">
-        <v>771282</v>
+        <v>27891447</v>
       </c>
       <c r="F7" t="n">
-        <v>101943</v>
+        <v>1158662736</v>
       </c>
       <c r="G7" t="n">
-        <v>778213752</v>
+        <v>6470618340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B8" t="s">
         <v>1024</v>
       </c>
       <c r="C8" t="n">
-        <v>145500</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1592065251</v>
+        <v>333410175</v>
       </c>
       <c r="E8" t="n">
-        <v>27891447</v>
+        <v>965778</v>
       </c>
       <c r="F8" t="n">
-        <v>1158662736</v>
+        <v>3680352</v>
       </c>
       <c r="G8" t="n">
-        <v>6470618340</v>
+        <v>6998057466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B9" t="s">
         <v>1025</v>
@@ -19866,63 +19862,63 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>333410175</v>
+        <v>51946125</v>
       </c>
       <c r="E9" t="n">
-        <v>965778</v>
+        <v>82428</v>
       </c>
       <c r="F9" t="n">
-        <v>3680352</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6998057466</v>
-      </c>
+        <v>7849038</v>
+      </c>
+      <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B10" t="s">
         <v>1026</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>28860</v>
       </c>
       <c r="D10" t="n">
-        <v>51946125</v>
-      </c>
-      <c r="E10" t="n">
-        <v>82428</v>
-      </c>
+        <v>9917088</v>
+      </c>
+      <c r="E10"/>
       <c r="F10" t="n">
-        <v>7849038</v>
-      </c>
-      <c r="G10"/>
+        <v>91377</v>
+      </c>
+      <c r="G10" t="n">
+        <v>78914331</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B11" t="s">
         <v>1027</v>
       </c>
       <c r="C11" t="n">
-        <v>28860</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9917088</v>
-      </c>
-      <c r="E11"/>
+        <v>210060336</v>
+      </c>
+      <c r="E11" t="n">
+        <v>90864</v>
+      </c>
       <c r="F11" t="n">
-        <v>91377</v>
+        <v>142541433</v>
       </c>
       <c r="G11" t="n">
-        <v>78914331</v>
+        <v>750717024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B12" t="s">
         <v>1028</v>
@@ -19931,111 +19927,111 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>210060336</v>
-      </c>
-      <c r="E12" t="n">
-        <v>90864</v>
-      </c>
+        <v>5495496</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" t="n">
-        <v>142541433</v>
+        <v>240022197</v>
       </c>
       <c r="G12" t="n">
-        <v>750717024</v>
+        <v>5987952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="B13" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5495496</v>
-      </c>
-      <c r="E13"/>
+        <v>17279574</v>
+      </c>
+      <c r="E13" t="n">
+        <v>896364</v>
+      </c>
       <c r="F13" t="n">
-        <v>240022197</v>
+        <v>236478</v>
       </c>
       <c r="G13" t="n">
-        <v>5987952</v>
+        <v>371137011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B14" t="s">
         <v>1031</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>185271</v>
       </c>
       <c r="D14" t="n">
-        <v>17279574</v>
+        <v>218898276</v>
       </c>
       <c r="E14" t="n">
-        <v>896364</v>
+        <v>4124595</v>
       </c>
       <c r="F14" t="n">
-        <v>236478</v>
+        <v>106130928</v>
       </c>
       <c r="G14" t="n">
-        <v>371137011</v>
+        <v>956013609</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B15" t="s">
         <v>1032</v>
       </c>
       <c r="C15" t="n">
-        <v>185271</v>
+        <v>145500</v>
       </c>
       <c r="D15" t="n">
-        <v>218898276</v>
+        <v>1592065251</v>
       </c>
       <c r="E15" t="n">
-        <v>4124595</v>
+        <v>27891447</v>
       </c>
       <c r="F15" t="n">
-        <v>106130928</v>
+        <v>1158662736</v>
       </c>
       <c r="G15" t="n">
-        <v>956013609</v>
+        <v>6470618340</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B16" t="s">
         <v>1033</v>
       </c>
       <c r="C16" t="n">
-        <v>145500</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1592065251</v>
+        <v>197740440</v>
       </c>
       <c r="E16" t="n">
-        <v>27891447</v>
+        <v>1552560</v>
       </c>
       <c r="F16" t="n">
-        <v>1158662736</v>
+        <v>190242264</v>
       </c>
       <c r="G16" t="n">
-        <v>6470618340</v>
+        <v>2046845169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B17" t="s">
         <v>1034</v>
@@ -20044,21 +20040,21 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>197740440</v>
+        <v>16171974</v>
       </c>
       <c r="E17" t="n">
-        <v>1552560</v>
+        <v>771282</v>
       </c>
       <c r="F17" t="n">
-        <v>190242264</v>
+        <v>101943</v>
       </c>
       <c r="G17" t="n">
-        <v>2046845169</v>
+        <v>778213752</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B18" t="s">
         <v>1035</v>
@@ -20067,21 +20063,21 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>16171974</v>
+        <v>324236898</v>
       </c>
       <c r="E18" t="n">
-        <v>771282</v>
+        <v>965778</v>
       </c>
       <c r="F18" t="n">
-        <v>101943</v>
+        <v>3630441</v>
       </c>
       <c r="G18" t="n">
-        <v>778213752</v>
+        <v>5776476507</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B19" t="s">
         <v>1036</v>
@@ -20090,21 +20086,21 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>324236898</v>
+        <v>78542883</v>
       </c>
       <c r="E19" t="n">
-        <v>965778</v>
+        <v>5255157</v>
       </c>
       <c r="F19" t="n">
-        <v>3630441</v>
+        <v>315448197</v>
       </c>
       <c r="G19" t="n">
-        <v>5776476507</v>
+        <v>308731269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B20" t="s">
         <v>1037</v>
@@ -20113,21 +20109,21 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>78542883</v>
+        <v>41528946</v>
       </c>
       <c r="E20" t="n">
-        <v>5255157</v>
+        <v>2522550</v>
       </c>
       <c r="F20" t="n">
-        <v>315448197</v>
+        <v>8065305</v>
       </c>
       <c r="G20" t="n">
-        <v>308731269</v>
+        <v>277354425</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B21" t="s">
         <v>1038</v>
@@ -20136,141 +20132,141 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>41528946</v>
+        <v>6074319</v>
       </c>
       <c r="E21" t="n">
-        <v>2522550</v>
+        <v>1427643</v>
       </c>
       <c r="F21" t="n">
-        <v>8065305</v>
+        <v>1973700</v>
       </c>
       <c r="G21" t="n">
-        <v>277354425</v>
+        <v>796179330</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B22" t="s">
         <v>1039</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6074319</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1427643</v>
-      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
       <c r="F22" t="n">
-        <v>1973700</v>
-      </c>
-      <c r="G22" t="n">
-        <v>796179330</v>
-      </c>
+        <v>1862391</v>
+      </c>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B23" t="s">
         <v>1040</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>56375799</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3078474</v>
+      </c>
       <c r="F23" t="n">
-        <v>1862391</v>
-      </c>
-      <c r="G23"/>
+        <v>85169064</v>
+      </c>
+      <c r="G23" t="n">
+        <v>702232437</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B24" t="s">
         <v>1041</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>56375799</v>
-      </c>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24" t="n">
-        <v>3078474</v>
-      </c>
-      <c r="F24" t="n">
-        <v>85169064</v>
-      </c>
-      <c r="G24" t="n">
-        <v>702232437</v>
-      </c>
+        <v>88542</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B25" t="s">
         <v>1042</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2586231</v>
+      </c>
       <c r="E25" t="n">
-        <v>88542</v>
+        <v>719439</v>
       </c>
       <c r="F25"/>
-      <c r="G25"/>
+      <c r="G25" t="n">
+        <v>429888</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B26" t="s">
         <v>1043</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>2586231</v>
+        <v>8726016</v>
       </c>
       <c r="E26" t="n">
-        <v>719439</v>
-      </c>
-      <c r="F26"/>
+        <v>9132123</v>
+      </c>
+      <c r="F26" t="n">
+        <v>316503210</v>
+      </c>
       <c r="G26" t="n">
-        <v>429888</v>
+        <v>149800869</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B27" t="s">
         <v>1044</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>8726016</v>
+        <v>279958137</v>
       </c>
       <c r="E27" t="n">
-        <v>9132123</v>
+        <v>9531105</v>
       </c>
       <c r="F27" t="n">
-        <v>316503210</v>
+        <v>119405961</v>
       </c>
       <c r="G27" t="n">
-        <v>149800869</v>
+        <v>2460409197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B28" t="s">
         <v>1045</v>
@@ -20279,21 +20275,21 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>279958137</v>
+        <v>327426</v>
       </c>
       <c r="E28" t="n">
-        <v>9531105</v>
+        <v>667896</v>
       </c>
       <c r="F28" t="n">
-        <v>119405961</v>
+        <v>37950</v>
       </c>
       <c r="G28" t="n">
-        <v>2460409197</v>
+        <v>18224322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B29" t="s">
         <v>1046</v>
@@ -20302,21 +20298,21 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>327426</v>
+        <v>251484432</v>
       </c>
       <c r="E29" t="n">
-        <v>667896</v>
+        <v>21920301</v>
       </c>
       <c r="F29" t="n">
-        <v>37950</v>
+        <v>14550174</v>
       </c>
       <c r="G29" t="n">
-        <v>18224322</v>
+        <v>2835826653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B30" t="s">
         <v>1047</v>
@@ -20325,21 +20321,21 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>251484432</v>
+        <v>37858389</v>
       </c>
       <c r="E30" t="n">
-        <v>21920301</v>
+        <v>3739377</v>
       </c>
       <c r="F30" t="n">
-        <v>14550174</v>
+        <v>42534438</v>
       </c>
       <c r="G30" t="n">
-        <v>2835826653</v>
+        <v>620297322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B31" t="s">
         <v>1048</v>
@@ -20347,22 +20343,18 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" t="n">
-        <v>37858389</v>
-      </c>
+      <c r="D31"/>
       <c r="E31" t="n">
-        <v>3739377</v>
-      </c>
-      <c r="F31" t="n">
-        <v>42534438</v>
-      </c>
+        <v>49638</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="n">
-        <v>620297322</v>
+        <v>170101836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B32" t="s">
         <v>1049</v>
@@ -20370,18 +20362,22 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="n">
+        <v>367600389</v>
+      </c>
       <c r="E32" t="n">
-        <v>49638</v>
-      </c>
-      <c r="F32"/>
+        <v>738936</v>
+      </c>
+      <c r="F32" t="n">
+        <v>139204326</v>
+      </c>
       <c r="G32" t="n">
-        <v>170101836</v>
+        <v>2071142193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B33" t="s">
         <v>1050</v>
@@ -20390,21 +20386,21 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>367600389</v>
+        <v>55702899</v>
       </c>
       <c r="E33" t="n">
-        <v>738936</v>
+        <v>1971708</v>
       </c>
       <c r="F33" t="n">
-        <v>139204326</v>
+        <v>132183147</v>
       </c>
       <c r="G33" t="n">
-        <v>2071142193</v>
+        <v>268747110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B34" t="s">
         <v>1051</v>
@@ -20413,21 +20409,21 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>55702899</v>
+        <v>322108560</v>
       </c>
       <c r="E34" t="n">
-        <v>1971708</v>
+        <v>5309991</v>
       </c>
       <c r="F34" t="n">
-        <v>132183147</v>
+        <v>116670426</v>
       </c>
       <c r="G34" t="n">
-        <v>268747110</v>
+        <v>2381005212</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B35" t="s">
         <v>1052</v>
@@ -20435,22 +20431,16 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="n">
-        <v>322108560</v>
-      </c>
-      <c r="E35" t="n">
-        <v>5309991</v>
-      </c>
-      <c r="F35" t="n">
-        <v>116670426</v>
-      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="n">
-        <v>2381005212</v>
+        <v>387546</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B36" t="s">
         <v>1053</v>
@@ -20458,81 +20448,87 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36" t="n">
-        <v>387546</v>
-      </c>
+      <c r="D36" t="n">
+        <v>51946125</v>
+      </c>
+      <c r="E36" t="n">
+        <v>82428</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7849038</v>
+      </c>
+      <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B37" t="s">
         <v>1054</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>28860</v>
       </c>
       <c r="D37" t="n">
-        <v>51946125</v>
-      </c>
-      <c r="E37" t="n">
-        <v>82428</v>
-      </c>
+        <v>9917088</v>
+      </c>
+      <c r="E37"/>
       <c r="F37" t="n">
-        <v>7849038</v>
-      </c>
-      <c r="G37"/>
+        <v>91377</v>
+      </c>
+      <c r="G37" t="n">
+        <v>78914331</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B38" t="s">
         <v>1055</v>
       </c>
       <c r="C38" t="n">
-        <v>28860</v>
+        <v>42000</v>
       </c>
       <c r="D38" t="n">
-        <v>9917088</v>
-      </c>
-      <c r="E38"/>
+        <v>40816686</v>
+      </c>
+      <c r="E38" t="n">
+        <v>665385</v>
+      </c>
       <c r="F38" t="n">
-        <v>91377</v>
+        <v>5926014</v>
       </c>
       <c r="G38" t="n">
-        <v>78914331</v>
+        <v>256119099</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B39" t="s">
         <v>1056</v>
       </c>
       <c r="C39" t="n">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>40816686</v>
+        <v>469341978</v>
       </c>
       <c r="E39" t="n">
-        <v>665385</v>
+        <v>10634106</v>
       </c>
       <c r="F39" t="n">
-        <v>5926014</v>
+        <v>51144735</v>
       </c>
       <c r="G39" t="n">
-        <v>256119099</v>
+        <v>3651079179</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B40" t="s">
         <v>1057</v>
@@ -20541,21 +20537,21 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>469341978</v>
+        <v>60296688</v>
       </c>
       <c r="E40" t="n">
-        <v>10634106</v>
+        <v>1044</v>
       </c>
       <c r="F40" t="n">
-        <v>51144735</v>
+        <v>27081543</v>
       </c>
       <c r="G40" t="n">
-        <v>3651079179</v>
+        <v>77053047</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B41" t="s">
         <v>1058</v>
@@ -20564,21 +20560,21 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>60296688</v>
+        <v>221982492</v>
       </c>
       <c r="E41" t="n">
-        <v>1044</v>
+        <v>2565303</v>
       </c>
       <c r="F41" t="n">
-        <v>27081543</v>
+        <v>458933892</v>
       </c>
       <c r="G41" t="n">
-        <v>77053047</v>
+        <v>1471853421</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B42" t="s">
         <v>1059</v>
@@ -20587,21 +20583,21 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>221982492</v>
+        <v>238478856</v>
       </c>
       <c r="E42" t="n">
-        <v>2565303</v>
+        <v>2145009</v>
       </c>
       <c r="F42" t="n">
-        <v>458933892</v>
+        <v>94664937</v>
       </c>
       <c r="G42" t="n">
-        <v>1471853421</v>
+        <v>1579372023</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B43" t="s">
         <v>1060</v>
@@ -20610,21 +20606,21 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>238478856</v>
+        <v>42784320</v>
       </c>
       <c r="E43" t="n">
-        <v>2145009</v>
+        <v>190497</v>
       </c>
       <c r="F43" t="n">
-        <v>94664937</v>
+        <v>453945</v>
       </c>
       <c r="G43" t="n">
-        <v>1579372023</v>
+        <v>158966280</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B44" t="s">
         <v>1061</v>
@@ -20633,21 +20629,21 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>42784320</v>
+        <v>105801</v>
       </c>
       <c r="E44" t="n">
-        <v>190497</v>
+        <v>52962</v>
       </c>
       <c r="F44" t="n">
-        <v>453945</v>
+        <v>385053</v>
       </c>
       <c r="G44" t="n">
-        <v>158966280</v>
+        <v>5185680</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B45" t="s">
         <v>1062</v>
@@ -20656,21 +20652,21 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>105801</v>
+        <v>210060336</v>
       </c>
       <c r="E45" t="n">
-        <v>52962</v>
+        <v>90864</v>
       </c>
       <c r="F45" t="n">
-        <v>385053</v>
+        <v>142541433</v>
       </c>
       <c r="G45" t="n">
-        <v>5185680</v>
+        <v>750717024</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B46" t="s">
         <v>1063</v>
@@ -20679,61 +20675,61 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>210060336</v>
+        <v>59173905</v>
       </c>
       <c r="E46" t="n">
-        <v>90864</v>
+        <v>7796619</v>
       </c>
       <c r="F46" t="n">
-        <v>142541433</v>
+        <v>416209272</v>
       </c>
       <c r="G46" t="n">
-        <v>750717024</v>
+        <v>183053424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B47" t="s">
         <v>1064</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
+      <c r="C47"/>
       <c r="D47" t="n">
-        <v>59173905</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7796619</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="E47"/>
       <c r="F47" t="n">
-        <v>416209272</v>
-      </c>
-      <c r="G47" t="n">
-        <v>183053424</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B48" t="s">
         <v>1065</v>
       </c>
-      <c r="C48"/>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
       <c r="D48" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E48"/>
+        <v>70698072</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4005753</v>
+      </c>
       <c r="F48" t="n">
-        <v>315</v>
-      </c>
-      <c r="G48"/>
+        <v>38952690</v>
+      </c>
+      <c r="G48" t="n">
+        <v>464614572</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1030</v>
+        <v>692</v>
       </c>
       <c r="B49" t="s">
         <v>1066</v>
@@ -20741,33 +20737,31 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="n">
-        <v>70698072</v>
-      </c>
+      <c r="D49"/>
       <c r="E49" t="n">
-        <v>4005753</v>
-      </c>
-      <c r="F49" t="n">
-        <v>38952690</v>
-      </c>
-      <c r="G49" t="n">
-        <v>464614572</v>
-      </c>
+        <v>21081</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="B50" t="s">
         <v>1067</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
       <c r="D50" t="n">
-        <v>62826</v>
+        <v>4014609</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50"/>
+      <c r="G50" t="n">
+        <v>127532640</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -20779,12 +20773,16 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="n">
+        <v>9814500</v>
+      </c>
       <c r="E51" t="n">
-        <v>21081</v>
+        <v>1683</v>
       </c>
       <c r="F51"/>
-      <c r="G51"/>
+      <c r="G51" t="n">
+        <v>144033606</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -20796,13 +20794,11 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="n">
-        <v>4014609</v>
-      </c>
+      <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>127532640</v>
+        <v>62952465</v>
       </c>
     </row>
     <row r="53">
@@ -20812,18 +20808,12 @@
       <c r="B53" t="s">
         <v>1070</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>9814500</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1683</v>
-      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>144033606</v>
+        <v>21569568</v>
       </c>
     </row>
     <row r="54">
@@ -20836,11 +20826,13 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="n">
+        <v>2342865</v>
+      </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>62952465</v>
+        <v>210464463</v>
       </c>
     </row>
     <row r="55">
@@ -20851,11 +20843,13 @@
         <v>1072</v>
       </c>
       <c r="C55"/>
-      <c r="D55"/>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>21569568</v>
+        <v>19702779</v>
       </c>
     </row>
     <row r="56">
@@ -20868,13 +20862,11 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="n">
-        <v>2342865</v>
-      </c>
+      <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>210464463</v>
+        <v>107829861</v>
       </c>
     </row>
     <row r="57">
@@ -20884,14 +20876,14 @@
       <c r="B57" t="s">
         <v>1074</v>
       </c>
-      <c r="C57"/>
-      <c r="D57" t="n">
-        <v>3</v>
-      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>19702779</v>
+        <v>78003411</v>
       </c>
     </row>
     <row r="58">
@@ -20904,12 +20896,12 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58"/>
+      <c r="D58" t="n">
+        <v>30303432</v>
+      </c>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58" t="n">
-        <v>107829861</v>
-      </c>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -20918,14 +20910,14 @@
       <c r="B59" t="s">
         <v>1076</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59"/>
+      <c r="C59"/>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>78003411</v>
+        <v>14955348</v>
       </c>
     </row>
     <row r="60">
@@ -20935,15 +20927,13 @@
       <c r="B60" t="s">
         <v>1077</v>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>30303432</v>
-      </c>
+      <c r="C60"/>
+      <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
-      <c r="G60"/>
+      <c r="G60" t="n">
+        <v>1061838</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -20953,13 +20943,11 @@
         <v>1078</v>
       </c>
       <c r="C61"/>
-      <c r="D61" t="n">
-        <v>3</v>
-      </c>
+      <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>14955348</v>
+        <v>3723510</v>
       </c>
     </row>
     <row r="62">
@@ -20969,12 +20957,14 @@
       <c r="B62" t="s">
         <v>1079</v>
       </c>
-      <c r="C62"/>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>1061838</v>
+        <v>28548384</v>
       </c>
     </row>
     <row r="63">
@@ -20984,12 +20974,14 @@
       <c r="B63" t="s">
         <v>1080</v>
       </c>
-      <c r="C63"/>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>3723510</v>
+        <v>10541397</v>
       </c>
     </row>
     <row r="64">
@@ -20999,15 +20991,13 @@
       <c r="B64" t="s">
         <v>1081</v>
       </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64"/>
+      <c r="C64"/>
+      <c r="D64" t="n">
+        <v>12586359</v>
+      </c>
       <c r="E64"/>
       <c r="F64"/>
-      <c r="G64" t="n">
-        <v>28548384</v>
-      </c>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -21016,14 +21006,12 @@
       <c r="B65" t="s">
         <v>1082</v>
       </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
+      <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>10541397</v>
+        <v>16494435</v>
       </c>
     </row>
     <row r="66">
@@ -21033,13 +21021,17 @@
       <c r="B66" t="s">
         <v>1083</v>
       </c>
-      <c r="C66"/>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
       <c r="D66" t="n">
-        <v>12586359</v>
+        <v>6</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66"/>
+      <c r="G66" t="n">
+        <v>112969995</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -21053,7 +21045,7 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>16494435</v>
+        <v>29631597</v>
       </c>
     </row>
     <row r="68">
@@ -21066,13 +21058,11 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" t="n">
-        <v>6</v>
-      </c>
+      <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>112969995</v>
+        <v>10304361</v>
       </c>
     </row>
     <row r="69">
@@ -21082,12 +21072,14 @@
       <c r="B69" t="s">
         <v>1086</v>
       </c>
-      <c r="C69"/>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>29631597</v>
+        <v>17033169</v>
       </c>
     </row>
     <row r="70">
@@ -21104,7 +21096,7 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>10304361</v>
+        <v>54884949</v>
       </c>
     </row>
     <row r="71">
@@ -21121,7 +21113,7 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>17033169</v>
+        <v>21373710</v>
       </c>
     </row>
     <row r="72">
@@ -21131,15 +21123,13 @@
       <c r="B72" t="s">
         <v>1089</v>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72"/>
+      <c r="C72"/>
+      <c r="D72" t="n">
+        <v>9819390</v>
+      </c>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72" t="n">
-        <v>54884949</v>
-      </c>
+      <c r="G72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -21153,10 +21143,10 @@
       </c>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73" t="n">
-        <v>21373710</v>
-      </c>
+      <c r="F73" t="n">
+        <v>277358334</v>
+      </c>
+      <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -21166,12 +21156,12 @@
         <v>1091</v>
       </c>
       <c r="C74"/>
-      <c r="D74" t="n">
-        <v>9819390</v>
-      </c>
+      <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74"/>
+      <c r="G74" t="n">
+        <v>24314913</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -21180,15 +21170,13 @@
       <c r="B75" t="s">
         <v>1092</v>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
+      <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" t="n">
-        <v>277358334</v>
-      </c>
-      <c r="G75"/>
+      <c r="F75"/>
+      <c r="G75" t="n">
+        <v>80401941</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -21197,12 +21185,14 @@
       <c r="B76" t="s">
         <v>1093</v>
       </c>
-      <c r="C76"/>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>24314913</v>
+        <v>23633208</v>
       </c>
     </row>
     <row r="77">
@@ -21212,12 +21202,14 @@
       <c r="B77" t="s">
         <v>1094</v>
       </c>
-      <c r="C77"/>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>80401941</v>
+        <v>50671272</v>
       </c>
     </row>
     <row r="78">
@@ -21230,11 +21222,13 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78"/>
+      <c r="D78" t="n">
+        <v>67791</v>
+      </c>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>23633208</v>
+        <v>36340536</v>
       </c>
     </row>
     <row r="79">
@@ -21244,55 +21238,57 @@
       <c r="B79" t="s">
         <v>1096</v>
       </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
+      <c r="C79"/>
       <c r="D79"/>
-      <c r="E79"/>
+      <c r="E79" t="n">
+        <v>22125</v>
+      </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>50671272</v>
+        <v>895596</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>692</v>
+        <v>1097</v>
       </c>
       <c r="B80" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>67791</v>
-      </c>
-      <c r="E80"/>
+        <v>3940260</v>
+      </c>
+      <c r="E80" t="n">
+        <v>752304</v>
+      </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>36340536</v>
+        <v>15933378</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>692</v>
+        <v>1097</v>
       </c>
       <c r="B81" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81" t="n">
-        <v>22125</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10153269</v>
+      </c>
+      <c r="E81"/>
       <c r="F81"/>
-      <c r="G81" t="n">
-        <v>895596</v>
-      </c>
+      <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B82" t="s">
         <v>1100</v>
@@ -21301,19 +21297,21 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>3940260</v>
+        <v>12134010</v>
       </c>
       <c r="E82" t="n">
-        <v>752304</v>
-      </c>
-      <c r="F82"/>
+        <v>2450484</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5399529</v>
+      </c>
       <c r="G82" t="n">
-        <v>15933378</v>
+        <v>497844</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B83" t="s">
         <v>1101</v>
@@ -21322,15 +21320,19 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>10153269</v>
+        <v>24673812</v>
       </c>
       <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
+      <c r="F83" t="n">
+        <v>22528446</v>
+      </c>
+      <c r="G83" t="n">
+        <v>28352442</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B84" t="s">
         <v>1102</v>
@@ -21339,21 +21341,17 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>12134010</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2450484</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5399529</v>
-      </c>
+        <v>14687520</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
       <c r="G84" t="n">
-        <v>497844</v>
+        <v>1813713</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B85" t="s">
         <v>1103</v>
@@ -21362,38 +21360,38 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>24673812</v>
+        <v>31579590</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>22528446</v>
+        <v>2416281</v>
       </c>
       <c r="G85" t="n">
-        <v>28352442</v>
+        <v>4921263</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B86" t="s">
         <v>1104</v>
       </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>14687520</v>
-      </c>
-      <c r="E86"/>
-      <c r="F86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" t="n">
+        <v>672807</v>
+      </c>
+      <c r="F86" t="n">
+        <v>240351204</v>
+      </c>
       <c r="G86" t="n">
-        <v>1813713</v>
+        <v>333540</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B87" t="s">
         <v>1105</v>
@@ -21402,38 +21400,38 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>31579590</v>
+        <v>67032294</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="n">
-        <v>2416281</v>
-      </c>
-      <c r="G87" t="n">
-        <v>4921263</v>
-      </c>
+        <v>2902086</v>
+      </c>
+      <c r="G87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B88" t="s">
         <v>1106</v>
       </c>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88" t="n">
-        <v>672807</v>
-      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>20697474</v>
+      </c>
+      <c r="E88"/>
       <c r="F88" t="n">
-        <v>240351204</v>
+        <v>1438368</v>
       </c>
       <c r="G88" t="n">
-        <v>333540</v>
+        <v>7860804</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B89" t="s">
         <v>1107</v>
@@ -21442,38 +21440,32 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>67032294</v>
+        <v>9888378</v>
       </c>
       <c r="E89"/>
-      <c r="F89" t="n">
-        <v>2902086</v>
-      </c>
-      <c r="G89"/>
+      <c r="F89"/>
+      <c r="G89" t="n">
+        <v>6067329</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B90" t="s">
         <v>1108</v>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
+      <c r="C90"/>
       <c r="D90" t="n">
-        <v>20697474</v>
+        <v>14721972</v>
       </c>
       <c r="E90"/>
-      <c r="F90" t="n">
-        <v>1438368</v>
-      </c>
-      <c r="G90" t="n">
-        <v>7860804</v>
-      </c>
+      <c r="F90"/>
+      <c r="G90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B91" t="s">
         <v>1109</v>
@@ -21482,32 +21474,42 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>9888378</v>
-      </c>
-      <c r="E91"/>
-      <c r="F91"/>
+        <v>2430234</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1335</v>
+      </c>
+      <c r="F91" t="n">
+        <v>23043726</v>
+      </c>
       <c r="G91" t="n">
-        <v>6067329</v>
+        <v>592797</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B92" t="s">
         <v>1110</v>
       </c>
-      <c r="C92"/>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
       <c r="D92" t="n">
-        <v>14721972</v>
+        <v>2525850</v>
       </c>
       <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
+      <c r="F92" t="n">
+        <v>52140369</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1735194</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B93" t="s">
         <v>1111</v>
@@ -21516,42 +21518,36 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>2430234</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1335</v>
-      </c>
+        <v>4481622</v>
+      </c>
+      <c r="E93"/>
       <c r="F93" t="n">
-        <v>23043726</v>
-      </c>
-      <c r="G93" t="n">
-        <v>592797</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B94" t="s">
         <v>1112</v>
       </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
+      <c r="C94"/>
       <c r="D94" t="n">
-        <v>2525850</v>
+        <v>11766591</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="n">
-        <v>52140369</v>
+        <v>446229</v>
       </c>
       <c r="G94" t="n">
-        <v>1735194</v>
+        <v>7511250</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B95" t="s">
         <v>1113</v>
@@ -21560,116 +21556,118 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>4481622</v>
+        <v>10616550</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>1526793</v>
       </c>
       <c r="G95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B96" t="s">
         <v>1114</v>
       </c>
-      <c r="C96"/>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
       <c r="D96" t="n">
-        <v>11766591</v>
+        <v>14582493</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="n">
-        <v>446229</v>
+        <v>5340729</v>
       </c>
       <c r="G96" t="n">
-        <v>7511250</v>
+        <v>5971431</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B97" t="s">
         <v>1115</v>
       </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
+      <c r="C97"/>
       <c r="D97" t="n">
-        <v>10616550</v>
-      </c>
-      <c r="E97"/>
+        <v>939765</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1416</v>
+      </c>
       <c r="F97" t="n">
-        <v>1526793</v>
+        <v>51606507</v>
       </c>
       <c r="G97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B98" t="s">
         <v>1116</v>
       </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
+      <c r="C98"/>
       <c r="D98" t="n">
-        <v>14582493</v>
-      </c>
-      <c r="E98"/>
+        <v>1404333</v>
+      </c>
+      <c r="E98" t="n">
+        <v>193581</v>
+      </c>
       <c r="F98" t="n">
-        <v>5340729</v>
+        <v>90003</v>
       </c>
       <c r="G98" t="n">
-        <v>5971431</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B99" t="s">
         <v>1117</v>
       </c>
-      <c r="C99"/>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
       <c r="D99" t="n">
-        <v>939765</v>
+        <v>41291679</v>
       </c>
       <c r="E99" t="n">
-        <v>1416</v>
+        <v>1038969</v>
       </c>
       <c r="F99" t="n">
-        <v>51606507</v>
-      </c>
-      <c r="G99"/>
+        <v>80047638</v>
+      </c>
+      <c r="G99" t="n">
+        <v>15731025</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B100" t="s">
         <v>1118</v>
       </c>
       <c r="C100"/>
-      <c r="D100" t="n">
-        <v>1404333</v>
-      </c>
+      <c r="D100"/>
       <c r="E100" t="n">
-        <v>193581</v>
-      </c>
-      <c r="F100" t="n">
-        <v>90003</v>
-      </c>
+        <v>110142</v>
+      </c>
+      <c r="F100"/>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>197907</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B101" t="s">
         <v>1119</v>
@@ -21678,38 +21676,40 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>41291679</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1038969</v>
-      </c>
+        <v>12233871</v>
+      </c>
+      <c r="E101"/>
       <c r="F101" t="n">
-        <v>80047638</v>
+        <v>2560395</v>
       </c>
       <c r="G101" t="n">
-        <v>15731025</v>
+        <v>4284489</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B102" t="s">
         <v>1120</v>
       </c>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102" t="n">
-        <v>110142</v>
-      </c>
-      <c r="F102"/>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>31799289</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="n">
+        <v>1333908</v>
+      </c>
       <c r="G102" t="n">
-        <v>197907</v>
+        <v>3335661</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B103" t="s">
         <v>1121</v>
@@ -21718,19 +21718,21 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>12233871</v>
-      </c>
-      <c r="E103"/>
+        <v>54767445</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1044</v>
+      </c>
       <c r="F103" t="n">
-        <v>2560395</v>
+        <v>25695873</v>
       </c>
       <c r="G103" t="n">
-        <v>4284489</v>
+        <v>2751387</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B104" t="s">
         <v>1122</v>
@@ -21739,131 +21741,127 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>31799289</v>
+        <v>10251423</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="n">
-        <v>1333908</v>
-      </c>
-      <c r="G104" t="n">
-        <v>3335661</v>
-      </c>
+        <v>114389439</v>
+      </c>
+      <c r="G104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B105" t="s">
         <v>1123</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>27900</v>
       </c>
       <c r="D105" t="n">
-        <v>54767445</v>
+        <v>30293892</v>
       </c>
       <c r="E105" t="n">
-        <v>1044</v>
+        <v>58524</v>
       </c>
       <c r="F105" t="n">
-        <v>25695873</v>
+        <v>19556949</v>
       </c>
       <c r="G105" t="n">
-        <v>2751387</v>
+        <v>189756</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B106" t="s">
         <v>1124</v>
       </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
+      <c r="C106"/>
       <c r="D106" t="n">
-        <v>10251423</v>
+        <v>1790370</v>
       </c>
       <c r="E106"/>
-      <c r="F106" t="n">
-        <v>114389439</v>
-      </c>
+      <c r="F106"/>
       <c r="G106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B107" t="s">
         <v>1125</v>
       </c>
-      <c r="C107" t="n">
-        <v>27900</v>
-      </c>
+      <c r="C107"/>
       <c r="D107" t="n">
-        <v>30293892</v>
-      </c>
-      <c r="E107" t="n">
-        <v>58524</v>
-      </c>
+        <v>701772</v>
+      </c>
+      <c r="E107"/>
       <c r="F107" t="n">
-        <v>19556949</v>
-      </c>
-      <c r="G107" t="n">
-        <v>189756</v>
-      </c>
+        <v>307995</v>
+      </c>
+      <c r="G107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B108" t="s">
         <v>1126</v>
       </c>
       <c r="C108"/>
-      <c r="D108" t="n">
-        <v>1790370</v>
-      </c>
+      <c r="D108"/>
       <c r="E108"/>
-      <c r="F108"/>
+      <c r="F108" t="n">
+        <v>396669</v>
+      </c>
       <c r="G108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B109" t="s">
         <v>1127</v>
       </c>
-      <c r="C109"/>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
       <c r="D109" t="n">
-        <v>701772</v>
+        <v>48103056</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="n">
-        <v>307995</v>
-      </c>
-      <c r="G109"/>
+        <v>97008</v>
+      </c>
+      <c r="G109" t="n">
+        <v>19596342</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B110" t="s">
         <v>1128</v>
       </c>
-      <c r="C110"/>
-      <c r="D110"/>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1220706</v>
+      </c>
       <c r="E110"/>
-      <c r="F110" t="n">
-        <v>396669</v>
-      </c>
-      <c r="G110"/>
+      <c r="F110"/>
+      <c r="G110" t="n">
+        <v>147498</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B111" t="s">
         <v>1129</v>
@@ -21872,38 +21870,38 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>48103056</v>
-      </c>
-      <c r="E111"/>
+        <v>78690</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1132266</v>
+      </c>
       <c r="F111" t="n">
-        <v>97008</v>
-      </c>
-      <c r="G111" t="n">
-        <v>19596342</v>
-      </c>
+        <v>23343525</v>
+      </c>
+      <c r="G111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B112" t="s">
         <v>1130</v>
       </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
+      <c r="C112"/>
       <c r="D112" t="n">
-        <v>1220706</v>
+        <v>9898230</v>
       </c>
       <c r="E112"/>
-      <c r="F112"/>
+      <c r="F112" t="n">
+        <v>9998862</v>
+      </c>
       <c r="G112" t="n">
-        <v>147498</v>
+        <v>837177</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B113" t="s">
         <v>1131</v>
@@ -21911,149 +21909,155 @@
       <c r="C113" t="n">
         <v>0</v>
       </c>
-      <c r="D113" t="n">
-        <v>78690</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1132266</v>
-      </c>
+      <c r="D113"/>
+      <c r="E113"/>
       <c r="F113" t="n">
-        <v>23343525</v>
+        <v>277358334</v>
       </c>
       <c r="G113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B114" t="s">
         <v>1132</v>
       </c>
-      <c r="C114"/>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
       <c r="D114" t="n">
-        <v>9898230</v>
+        <v>2689308</v>
       </c>
       <c r="E114"/>
-      <c r="F114" t="n">
-        <v>9998862</v>
-      </c>
+      <c r="F114"/>
       <c r="G114" t="n">
-        <v>837177</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B115" t="s">
         <v>1133</v>
       </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115"/>
+      <c r="C115"/>
+      <c r="D115" t="n">
+        <v>2356893</v>
+      </c>
       <c r="E115"/>
-      <c r="F115" t="n">
-        <v>277358334</v>
-      </c>
-      <c r="G115"/>
+      <c r="F115"/>
+      <c r="G115" t="n">
+        <v>746478</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B116" t="s">
         <v>1134</v>
       </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>2689308</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116" t="n">
-        <v>3</v>
-      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116" t="n">
+        <v>5599995</v>
+      </c>
+      <c r="F116" t="n">
+        <v>248102454</v>
+      </c>
+      <c r="G116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B117" t="s">
         <v>1135</v>
       </c>
-      <c r="C117"/>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
       <c r="D117" t="n">
-        <v>2356893</v>
-      </c>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117" t="n">
-        <v>746478</v>
-      </c>
+        <v>402495</v>
+      </c>
+      <c r="E117" t="n">
+        <v>37002</v>
+      </c>
+      <c r="F117" t="n">
+        <v>28871007</v>
+      </c>
+      <c r="G117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B118" t="s">
         <v>1136</v>
       </c>
       <c r="C118"/>
-      <c r="D118"/>
+      <c r="D118" t="n">
+        <v>448917</v>
+      </c>
       <c r="E118" t="n">
-        <v>5599995</v>
-      </c>
-      <c r="F118" t="n">
-        <v>248102454</v>
-      </c>
-      <c r="G118"/>
+        <v>137289</v>
+      </c>
+      <c r="F118"/>
+      <c r="G118" t="n">
+        <v>6918</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1099</v>
+        <v>1137</v>
       </c>
       <c r="B119" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>402495</v>
+        <v>38098212</v>
       </c>
       <c r="E119" t="n">
-        <v>37002</v>
+        <v>32822232</v>
       </c>
       <c r="F119" t="n">
-        <v>28871007</v>
-      </c>
-      <c r="G119"/>
+        <v>1605334107</v>
+      </c>
+      <c r="G119" t="n">
+        <v>834838773</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1099</v>
+        <v>1137</v>
       </c>
       <c r="B120" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C120"/>
+        <v>1139</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
       <c r="D120" t="n">
-        <v>448917</v>
+        <v>156873420</v>
       </c>
       <c r="E120" t="n">
-        <v>137289</v>
-      </c>
-      <c r="F120"/>
+        <v>58513860</v>
+      </c>
+      <c r="F120" t="n">
+        <v>40056390</v>
+      </c>
       <c r="G120" t="n">
-        <v>6918</v>
+        <v>1147407507</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B121" t="s">
         <v>1140</v>
@@ -22062,21 +22066,21 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>38098212</v>
+        <v>785790</v>
       </c>
       <c r="E121" t="n">
-        <v>32822232</v>
+        <v>37150938</v>
       </c>
       <c r="F121" t="n">
-        <v>1605334107</v>
+        <v>2987808</v>
       </c>
       <c r="G121" t="n">
-        <v>834838773</v>
+        <v>104217492</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B122" t="s">
         <v>1141</v>
@@ -22085,21 +22089,21 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>156873420</v>
+        <v>648123</v>
       </c>
       <c r="E122" t="n">
-        <v>58513860</v>
+        <v>31381254</v>
       </c>
       <c r="F122" t="n">
-        <v>40056390</v>
+        <v>28309746</v>
       </c>
       <c r="G122" t="n">
-        <v>1147407507</v>
+        <v>55277904</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B123" t="s">
         <v>1142</v>
@@ -22108,21 +22112,21 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>785790</v>
+        <v>971261163</v>
       </c>
       <c r="E123" t="n">
-        <v>37150938</v>
+        <v>22199301</v>
       </c>
       <c r="F123" t="n">
-        <v>2987808</v>
+        <v>419804463</v>
       </c>
       <c r="G123" t="n">
-        <v>104217492</v>
+        <v>5962338345</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B124" t="s">
         <v>1143</v>
@@ -22131,21 +22135,21 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>648123</v>
+        <v>16161237</v>
       </c>
       <c r="E124" t="n">
-        <v>31381254</v>
+        <v>119758299</v>
       </c>
       <c r="F124" t="n">
-        <v>28309746</v>
+        <v>829959</v>
       </c>
       <c r="G124" t="n">
-        <v>55277904</v>
+        <v>397650168</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B125" t="s">
         <v>1144</v>
@@ -22154,136 +22158,136 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>971261163</v>
+        <v>353261091</v>
       </c>
       <c r="E125" t="n">
-        <v>22199301</v>
+        <v>46956384</v>
       </c>
       <c r="F125" t="n">
-        <v>419804463</v>
+        <v>169469061</v>
       </c>
       <c r="G125" t="n">
-        <v>5962338345</v>
+        <v>4224547791</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B126" t="s">
         <v>1145</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D126" t="n">
-        <v>16161237</v>
+        <v>48980046</v>
       </c>
       <c r="E126" t="n">
-        <v>119758299</v>
+        <v>59598222</v>
       </c>
       <c r="F126" t="n">
-        <v>829959</v>
+        <v>470031822</v>
       </c>
       <c r="G126" t="n">
-        <v>397650168</v>
+        <v>280629756</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B127" t="s">
         <v>1146</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>145500</v>
       </c>
       <c r="D127" t="n">
-        <v>353261091</v>
+        <v>875323281</v>
       </c>
       <c r="E127" t="n">
-        <v>46956384</v>
+        <v>13982877</v>
       </c>
       <c r="F127" t="n">
-        <v>169469061</v>
+        <v>393782502</v>
       </c>
       <c r="G127" t="n">
-        <v>4224547791</v>
+        <v>2744070837</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B128" t="s">
         <v>1147</v>
       </c>
       <c r="C128" t="n">
-        <v>18</v>
+        <v>185271</v>
       </c>
       <c r="D128" t="n">
-        <v>48980046</v>
+        <v>516319692</v>
       </c>
       <c r="E128" t="n">
-        <v>59598222</v>
+        <v>19324863</v>
       </c>
       <c r="F128" t="n">
-        <v>470031822</v>
+        <v>646751226</v>
       </c>
       <c r="G128" t="n">
-        <v>280629756</v>
+        <v>3522363720</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B129" t="s">
         <v>1148</v>
       </c>
       <c r="C129" t="n">
-        <v>145500</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>875323281</v>
+        <v>40203819</v>
       </c>
       <c r="E129" t="n">
-        <v>13982877</v>
+        <v>85259979</v>
       </c>
       <c r="F129" t="n">
-        <v>393782502</v>
+        <v>49855365</v>
       </c>
       <c r="G129" t="n">
-        <v>2744070837</v>
+        <v>804942171</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B130" t="s">
         <v>1149</v>
       </c>
       <c r="C130" t="n">
-        <v>185271</v>
+        <v>28860</v>
       </c>
       <c r="D130" t="n">
-        <v>516319692</v>
+        <v>126993321</v>
       </c>
       <c r="E130" t="n">
-        <v>19324863</v>
+        <v>48995352</v>
       </c>
       <c r="F130" t="n">
-        <v>646751226</v>
+        <v>561871740</v>
       </c>
       <c r="G130" t="n">
-        <v>3522363720</v>
+        <v>662064270</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B131" t="s">
         <v>1150</v>
@@ -22292,44 +22296,44 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>40203819</v>
+        <v>340303731</v>
       </c>
       <c r="E131" t="n">
-        <v>85259979</v>
+        <v>23159970</v>
       </c>
       <c r="F131" t="n">
-        <v>49855365</v>
+        <v>317266095</v>
       </c>
       <c r="G131" t="n">
-        <v>804942171</v>
+        <v>4044630399</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B132" t="s">
         <v>1151</v>
       </c>
       <c r="C132" t="n">
-        <v>28860</v>
+        <v>42000</v>
       </c>
       <c r="D132" t="n">
-        <v>126993321</v>
+        <v>50465805</v>
       </c>
       <c r="E132" t="n">
-        <v>48995352</v>
+        <v>64757337</v>
       </c>
       <c r="F132" t="n">
-        <v>561871740</v>
+        <v>8650617</v>
       </c>
       <c r="G132" t="n">
-        <v>662064270</v>
+        <v>248058501</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B133" t="s">
         <v>1152</v>
@@ -22338,44 +22342,44 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>340303731</v>
+        <v>705904875</v>
       </c>
       <c r="E133" t="n">
-        <v>23159970</v>
+        <v>22021563</v>
       </c>
       <c r="F133" t="n">
-        <v>317266095</v>
+        <v>61051782</v>
       </c>
       <c r="G133" t="n">
-        <v>4044630399</v>
+        <v>5585572941</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B134" t="s">
         <v>1153</v>
       </c>
       <c r="C134" t="n">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>50465805</v>
+        <v>18134430</v>
       </c>
       <c r="E134" t="n">
-        <v>64757337</v>
+        <v>10770426</v>
       </c>
       <c r="F134" t="n">
-        <v>8650617</v>
+        <v>1396337634</v>
       </c>
       <c r="G134" t="n">
-        <v>248058501</v>
+        <v>402905784</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B135" t="s">
         <v>1154</v>
@@ -22384,21 +22388,21 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>705904875</v>
+        <v>749633220</v>
       </c>
       <c r="E135" t="n">
-        <v>22021563</v>
+        <v>21069384</v>
       </c>
       <c r="F135" t="n">
-        <v>61051782</v>
+        <v>478920060</v>
       </c>
       <c r="G135" t="n">
-        <v>5585572941</v>
+        <v>3586921839</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B136" t="s">
         <v>1155</v>
@@ -22407,21 +22411,21 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>18134430</v>
+        <v>873276</v>
       </c>
       <c r="E136" t="n">
-        <v>10770426</v>
+        <v>40612104</v>
       </c>
       <c r="F136" t="n">
-        <v>1396337634</v>
+        <v>5803617</v>
       </c>
       <c r="G136" t="n">
-        <v>402905784</v>
+        <v>121476324</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B137" t="s">
         <v>1156</v>
@@ -22430,44 +22434,44 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>749633220</v>
+        <v>558007077</v>
       </c>
       <c r="E137" t="n">
-        <v>21069384</v>
+        <v>21368769</v>
       </c>
       <c r="F137" t="n">
-        <v>478920060</v>
+        <v>172736451</v>
       </c>
       <c r="G137" t="n">
-        <v>3586921839</v>
+        <v>9920257200</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B138" t="s">
         <v>1157</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>2946</v>
       </c>
       <c r="D138" t="n">
-        <v>873276</v>
+        <v>11245143</v>
       </c>
       <c r="E138" t="n">
-        <v>40612104</v>
+        <v>59827515</v>
       </c>
       <c r="F138" t="n">
-        <v>5803617</v>
+        <v>4768698</v>
       </c>
       <c r="G138" t="n">
-        <v>121476324</v>
+        <v>60077169</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B139" t="s">
         <v>1158</v>
@@ -22476,44 +22480,42 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>558007077</v>
+        <v>93168249</v>
       </c>
       <c r="E139" t="n">
-        <v>21368769</v>
+        <v>27251961</v>
       </c>
       <c r="F139" t="n">
-        <v>172736451</v>
+        <v>291489333</v>
       </c>
       <c r="G139" t="n">
-        <v>9920257200</v>
+        <v>331670457</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B140" t="s">
         <v>1159</v>
       </c>
       <c r="C140" t="n">
-        <v>2946</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>11245143</v>
+        <v>468510</v>
       </c>
       <c r="E140" t="n">
-        <v>59827515</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4768698</v>
-      </c>
+        <v>67300419</v>
+      </c>
+      <c r="F140"/>
       <c r="G140" t="n">
-        <v>60077169</v>
+        <v>36022311</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B141" t="s">
         <v>1160</v>
@@ -22522,59 +22524,15 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>93168249</v>
+        <v>45332835</v>
       </c>
       <c r="E141" t="n">
-        <v>27251961</v>
+        <v>97136535</v>
       </c>
       <c r="F141" t="n">
-        <v>291489333</v>
+        <v>10865517</v>
       </c>
       <c r="G141" t="n">
-        <v>331670457</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>468510</v>
-      </c>
-      <c r="E142" t="n">
-        <v>67300419</v>
-      </c>
-      <c r="F142"/>
-      <c r="G142" t="n">
-        <v>36022311</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>45332835</v>
-      </c>
-      <c r="E143" t="n">
-        <v>97136535</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10865517</v>
-      </c>
-      <c r="G143" t="n">
         <v>335966169</v>
       </c>
     </row>

--- a/outputs/3_effective_rates_will.xlsx
+++ b/outputs/3_effective_rates_will.xlsx
@@ -2624,93 +2624,96 @@
     <t xml:space="preserve">E 84</t>
   </si>
   <si>
+    <t xml:space="preserve">tbl28_0990997020840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Lighting District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAST MORELAND ST LTG DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990995210008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAST JOLIET SAN DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990995090164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREST HILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990992400019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCKDALE FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990995100790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCKDALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990992400072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTHEAST JOLIET SAN DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990995090167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTON HTS ST LTG DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990995210018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREENFIELD SAN DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990995090170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITY OF JOLIET SSA 96-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_703-5159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILL COUNTY SSA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_721-5476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW LENOX LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990995160182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITY OF JOLIET SSA 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_761-5163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCKPORT TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0990993020045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E 88</t>
+  </si>
+  <si>
     <t xml:space="preserve">tbl28_0990997020880</t>
   </si>
   <si>
-    <t xml:space="preserve">tbl28_0990997020840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Lighting District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAST MORELAND ST LTG DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990995210008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAST JOLIET SAN DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990995090164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREST HILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990992400019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCKDALE FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990995100790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCKDALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990992400072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTHEAST JOLIET SAN DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990995090167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESTON HTS ST LTG DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990995210018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREENFIELD SAN DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990995090170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITY OF JOLIET SSA 96-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_703-5159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILL COUNTY SSA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_721-5476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW LENOX LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990995160182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITY OF JOLIET SSA 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_761-5163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCKPORT TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0990993020045</t>
-  </si>
-  <si>
     <t xml:space="preserve">E 88A</t>
   </si>
   <si>
@@ -3066,9 +3069,6 @@
   </si>
   <si>
     <t xml:space="preserve">WILL COUNTY BLDG COMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E 88</t>
   </si>
   <si>
     <t xml:space="preserve">Municipal Fire</t>
@@ -6111,10 +6111,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0167370042380677</v>
+        <v>0.026062106096715</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0182340523392129</v>
+        <v>0.0293313600379802</v>
       </c>
     </row>
     <row r="209">
@@ -6122,10 +6122,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0151014870495253</v>
+        <v>0.0244265889081725</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0162983017289385</v>
+        <v>0.0273956094277058</v>
       </c>
     </row>
     <row r="210">
@@ -6606,10 +6606,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0167370042380677</v>
+        <v>0.026062106096715</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0182340523392129</v>
+        <v>0.0293313600379802</v>
       </c>
     </row>
     <row r="254">
@@ -9862,10 +9862,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="n">
-        <v>0.0429487065046556</v>
+        <v>0.02386207279136</v>
       </c>
       <c r="C549" t="n">
-        <v>0.0293737624589208</v>
+        <v>0.0260722696964956</v>
       </c>
     </row>
     <row r="550">
@@ -9972,10 +9972,10 @@
         <v>560</v>
       </c>
       <c r="B559" t="n">
-        <v>0.0412202024265993</v>
+        <v>0.0221335687133036</v>
       </c>
       <c r="C559" t="n">
-        <v>0.0271606044992535</v>
+        <v>0.0238591117368283</v>
       </c>
     </row>
     <row r="560">
@@ -9983,10 +9983,10 @@
         <v>561</v>
       </c>
       <c r="B560" t="n">
-        <v>0.040471402057939</v>
+        <v>0.0213847683446433</v>
       </c>
       <c r="C560" t="n">
-        <v>0.0263856368760248</v>
+        <v>0.0230841441135996</v>
       </c>
     </row>
     <row r="561">
@@ -10203,10 +10203,10 @@
         <v>581</v>
       </c>
       <c r="B580" t="n">
-        <v>0.0412202024265993</v>
+        <v>0.0221335687133036</v>
       </c>
       <c r="C580" t="n">
-        <v>0.0271606044992535</v>
+        <v>0.0238591117368283</v>
       </c>
     </row>
     <row r="581">
@@ -10214,10 +10214,10 @@
         <v>582</v>
       </c>
       <c r="B581" t="n">
-        <v>0.040471402057939</v>
+        <v>0.0213847683446433</v>
       </c>
       <c r="C581" t="n">
-        <v>0.0263856368760248</v>
+        <v>0.0230841441135996</v>
       </c>
     </row>
     <row r="582">
@@ -16245,89 +16245,89 @@
         <v>89978655</v>
       </c>
       <c r="H127" t="n">
-        <v>2365134.54</v>
+        <v>1960835.3</v>
       </c>
       <c r="I127" t="n">
-        <v>1717389.63</v>
+        <v>625009.89</v>
       </c>
       <c r="J127" t="n">
-        <v>294455.55</v>
+        <v>869359.58</v>
       </c>
       <c r="K127" t="n">
-        <v>282378.72</v>
+        <v>461056.46</v>
       </c>
       <c r="L127" t="n">
-        <v>70910.64</v>
+        <v>5409.37</v>
       </c>
       <c r="M127" t="s">
         <v>869</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0190866337132957</v>
+        <v>0.0069462017408462</v>
       </c>
       <c r="O127" t="n">
-        <v>0.00330149276242514</v>
+        <v>0.00761459426998731</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>608</v>
+        <v>870</v>
       </c>
       <c r="B128" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>115532667</v>
+        <v>2568156</v>
       </c>
       <c r="E128" t="n">
-        <v>6138</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>59186562</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>89978655</v>
+        <v>57570516</v>
       </c>
       <c r="H128" t="n">
-        <v>1960835.3</v>
+        <v>20313.89</v>
       </c>
       <c r="I128" t="n">
-        <v>625009.89</v>
+        <v>19253.23</v>
       </c>
       <c r="J128" t="n">
-        <v>869359.58</v>
+        <v>1060.66</v>
       </c>
       <c r="K128" t="n">
-        <v>461056.46</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>5409.37</v>
+        <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0069462017408462</v>
+        <v>0.000334428650943479</v>
       </c>
       <c r="O128" t="n">
-        <v>0.00761459426998731</v>
+        <v>0.000413004505956803</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>871</v>
+        <v>681</v>
       </c>
       <c r="B129" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>2568156</v>
+        <v>1056219</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -16336,16 +16336,16 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>57570516</v>
+        <v>51027501</v>
       </c>
       <c r="H129" t="n">
-        <v>20313.89</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>19253.23</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1060.66</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -16354,230 +16354,230 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N129" t="n">
-        <v>0.000334428650943479</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>0.000413004505956803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>681</v>
+        <v>617</v>
       </c>
       <c r="B130" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>185271</v>
       </c>
       <c r="D130" t="n">
-        <v>1056219</v>
+        <v>218898276</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>4124595</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>106130928</v>
       </c>
       <c r="G130" t="n">
-        <v>51027501</v>
+        <v>956013609</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2205691.84</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1563576.69</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>423818.04</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>205357.44</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>12939.67</v>
       </c>
       <c r="M130" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>0.00163551718854245</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>0.00193575061027439</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B131" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C131" t="n">
-        <v>185271</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>218898276</v>
+        <v>66400107</v>
       </c>
       <c r="E131" t="n">
-        <v>4124595</v>
+        <v>4548</v>
       </c>
       <c r="F131" t="n">
-        <v>106130928</v>
+        <v>83472120</v>
       </c>
       <c r="G131" t="n">
-        <v>956013609</v>
+        <v>78000975</v>
       </c>
       <c r="H131" t="n">
-        <v>2205691.84</v>
+        <v>390068.56</v>
       </c>
       <c r="I131" t="n">
-        <v>1563576.69</v>
+        <v>126343.31</v>
       </c>
       <c r="J131" t="n">
-        <v>423818.04</v>
+        <v>110445.36</v>
       </c>
       <c r="K131" t="n">
-        <v>205357.44</v>
+        <v>151656.92</v>
       </c>
       <c r="L131" t="n">
-        <v>12939.67</v>
+        <v>1622.97</v>
       </c>
       <c r="M131" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N131" t="n">
-        <v>0.00163551718854245</v>
+        <v>0.00161976577856879</v>
       </c>
       <c r="O131" t="n">
-        <v>0.00193575061027439</v>
+        <v>0.00174883822871332</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="B132" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>66400107</v>
+        <v>60296688</v>
       </c>
       <c r="E132" t="n">
-        <v>4548</v>
+        <v>1044</v>
       </c>
       <c r="F132" t="n">
-        <v>83472120</v>
+        <v>27081543</v>
       </c>
       <c r="G132" t="n">
-        <v>78000975</v>
+        <v>77053047</v>
       </c>
       <c r="H132" t="n">
-        <v>390068.56</v>
+        <v>125968.65</v>
       </c>
       <c r="I132" t="n">
-        <v>126343.31</v>
+        <v>57697.35</v>
       </c>
       <c r="J132" t="n">
-        <v>110445.36</v>
+        <v>45801.23</v>
       </c>
       <c r="K132" t="n">
-        <v>151656.92</v>
+        <v>21914.07</v>
       </c>
       <c r="L132" t="n">
-        <v>1622.97</v>
+        <v>556</v>
       </c>
       <c r="M132" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N132" t="n">
-        <v>0.00161976577856879</v>
+        <v>0.000748800368660307</v>
       </c>
       <c r="O132" t="n">
-        <v>0.00174883822871332</v>
+        <v>0.000774967623228719</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
       <c r="B133" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>60296688</v>
+        <v>5356377</v>
       </c>
       <c r="E133" t="n">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>27081543</v>
+        <v>24681</v>
       </c>
       <c r="G133" t="n">
-        <v>77053047</v>
+        <v>39605565</v>
       </c>
       <c r="H133" t="n">
-        <v>125968.65</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>57697.35</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>45801.23</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>21914.07</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N133" t="n">
-        <v>0.000748800368660307</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>0.000774967623228719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>681</v>
+        <v>870</v>
       </c>
       <c r="B134" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>5356377</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>24681</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>39605565</v>
+        <v>18489489</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>4463.53</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>4463.53</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -16589,10 +16589,10 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>0.00024140905138049</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -16600,10 +16600,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>871</v>
+        <v>681</v>
       </c>
       <c r="B135" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -16618,13 +16618,13 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>18489489</v>
+        <v>7196559</v>
       </c>
       <c r="H135" t="n">
-        <v>4463.53</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>4463.53</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -16636,10 +16636,10 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N135" t="n">
-        <v>0.00024140905138049</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
@@ -16647,49 +16647,49 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="B136" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>163072899</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>18573333</v>
       </c>
       <c r="G136" t="n">
-        <v>7196559</v>
+        <v>14484795</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>564922.47</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>35541.51</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>471669.93</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>57711.03</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>-0.0000000000873114913702011</v>
       </c>
       <c r="M136" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>0.00245371163347496</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>0.0029143514521127</v>
       </c>
     </row>
     <row r="137">
@@ -16697,234 +16697,234 @@
         <v>692</v>
       </c>
       <c r="B137" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>163072899</v>
+        <v>338154</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>18573333</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>14484795</v>
+        <v>12381798</v>
       </c>
       <c r="H137" t="n">
-        <v>564922.47</v>
+        <v>67152.01</v>
       </c>
       <c r="I137" t="n">
-        <v>35541.51</v>
+        <v>64883.33</v>
       </c>
       <c r="J137" t="n">
-        <v>471669.93</v>
+        <v>2268.68</v>
       </c>
       <c r="K137" t="n">
-        <v>57711.03</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.0000000000873114913702011</v>
+        <v>-0.00000000000682121026329696</v>
       </c>
       <c r="M137" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N137" t="n">
-        <v>0.00245371163347496</v>
+        <v>0.00524021874690574</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0029143514521127</v>
+        <v>0.00670901423611727</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>692</v>
+        <v>633</v>
       </c>
       <c r="B138" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>338154</v>
+        <v>339514170</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>23594334</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>180712686</v>
       </c>
       <c r="G138" t="n">
-        <v>12381798</v>
+        <v>3751636584</v>
       </c>
       <c r="H138" t="n">
-        <v>67152.01</v>
+        <v>2978007.49</v>
       </c>
       <c r="I138" t="n">
-        <v>64883.33</v>
+        <v>2569346.82</v>
       </c>
       <c r="J138" t="n">
-        <v>2268.68</v>
+        <v>253168.25</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>134978.24</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.00000000000682121026329696</v>
+        <v>20514.18</v>
       </c>
       <c r="M138" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N138" t="n">
-        <v>0.00524021874690574</v>
+        <v>0.000684860263640078</v>
       </c>
       <c r="O138" t="n">
-        <v>0.00670901423611727</v>
+        <v>0.000746110058570294</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="B139" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>339514170</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>23594334</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>180712686</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>3751636584</v>
+        <v>9375123</v>
       </c>
       <c r="H139" t="n">
-        <v>2978007.49</v>
+        <v>11541.46</v>
       </c>
       <c r="I139" t="n">
-        <v>2569346.82</v>
+        <v>11541.46</v>
       </c>
       <c r="J139" t="n">
-        <v>253168.25</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>134978.24</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>20514.18</v>
+        <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N139" t="n">
-        <v>0.000684860263640078</v>
+        <v>0.00123107291499002</v>
       </c>
       <c r="O139" t="n">
-        <v>0.000746110058570294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>692</v>
+        <v>623</v>
       </c>
       <c r="B140" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>185271</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>516319692</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>19324863</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>646751226</v>
       </c>
       <c r="G140" t="n">
-        <v>9375123</v>
+        <v>3522363720</v>
       </c>
       <c r="H140" t="n">
-        <v>11541.46</v>
+        <v>3495586.06</v>
       </c>
       <c r="I140" t="n">
-        <v>11541.46</v>
+        <v>2523225.83</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>406989.14</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>536685.86</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>28685.23</v>
       </c>
       <c r="M140" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N140" t="n">
-        <v>0.00123107291499002</v>
+        <v>0.000716344486423452</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>0.000811364969577891</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B141" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C141" t="n">
         <v>185271</v>
       </c>
       <c r="D141" t="n">
-        <v>516319692</v>
+        <v>26551581</v>
       </c>
       <c r="E141" t="n">
-        <v>19324863</v>
+        <v>2402124</v>
       </c>
       <c r="F141" t="n">
-        <v>646751226</v>
+        <v>25428078</v>
       </c>
       <c r="G141" t="n">
-        <v>3522363720</v>
+        <v>184168458</v>
       </c>
       <c r="H141" t="n">
-        <v>3495586.06</v>
+        <v>2365134.54</v>
       </c>
       <c r="I141" t="n">
-        <v>2523225.83</v>
+        <v>1717389.63</v>
       </c>
       <c r="J141" t="n">
-        <v>406989.14</v>
+        <v>294455.55</v>
       </c>
       <c r="K141" t="n">
-        <v>536685.86</v>
+        <v>282378.72</v>
       </c>
       <c r="L141" t="n">
-        <v>28685.23</v>
+        <v>70910.64</v>
       </c>
       <c r="M141" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N141" t="n">
-        <v>0.000716344486423452</v>
+        <v>0.00932510185864726</v>
       </c>
       <c r="O141" t="n">
-        <v>0.000811364969577891</v>
+        <v>0.0110973076987673</v>
       </c>
     </row>
     <row r="142">
@@ -16932,7 +16932,7 @@
         <v>608</v>
       </c>
       <c r="B142" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -16965,7 +16965,7 @@
         <v>55554.46</v>
       </c>
       <c r="M142" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N142" t="n">
         <v>0.00935893898063507</v>
@@ -16979,7 +16979,7 @@
         <v>608</v>
       </c>
       <c r="B143" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -17012,7 +17012,7 @@
         <v>132846.8</v>
       </c>
       <c r="M143" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N143" t="n">
         <v>0.0129405415020051</v>
@@ -17026,7 +17026,7 @@
         <v>608</v>
       </c>
       <c r="B144" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -17059,7 +17059,7 @@
         <v>17530.59</v>
       </c>
       <c r="M144" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N144" t="n">
         <v>0.0097962932879332</v>
@@ -17073,7 +17073,7 @@
         <v>608</v>
       </c>
       <c r="B145" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -17106,7 +17106,7 @@
         <v>13435.36</v>
       </c>
       <c r="M145" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N145" t="n">
         <v>0.0109073917661293</v>
@@ -17120,7 +17120,7 @@
         <v>681</v>
       </c>
       <c r="B146" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="M146" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -17167,7 +17167,7 @@
         <v>617</v>
       </c>
       <c r="B147" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -17200,7 +17200,7 @@
         <v>13106.97</v>
       </c>
       <c r="M147" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N147" t="n">
         <v>0.00274703642844358</v>
@@ -17214,7 +17214,7 @@
         <v>623</v>
       </c>
       <c r="B148" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>93283.12</v>
       </c>
       <c r="M148" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N148" t="n">
         <v>0.00100067456895608</v>
@@ -17261,7 +17261,7 @@
         <v>623</v>
       </c>
       <c r="B149" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C149" t="n">
         <v>28860</v>
@@ -17294,7 +17294,7 @@
         <v>83873.55</v>
       </c>
       <c r="M149" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N149" t="n">
         <v>0.00155727659189341</v>
@@ -17308,7 +17308,7 @@
         <v>617</v>
       </c>
       <c r="B150" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -17341,7 +17341,7 @@
         <v>16519.12</v>
       </c>
       <c r="M150" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N150" t="n">
         <v>0.00624285195104052</v>
@@ -17355,7 +17355,7 @@
         <v>630</v>
       </c>
       <c r="B151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -17388,7 +17388,7 @@
         <v>51940.2</v>
       </c>
       <c r="M151" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N151" t="n">
         <v>0.00176595747006035</v>
@@ -17402,7 +17402,7 @@
         <v>623</v>
       </c>
       <c r="B152" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -17435,7 +17435,7 @@
         <v>25139.33</v>
       </c>
       <c r="M152" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N152" t="n">
         <v>0.000852008445778385</v>
@@ -17449,7 +17449,7 @@
         <v>692</v>
       </c>
       <c r="B153" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -17482,7 +17482,7 @@
         <v>53789.02</v>
       </c>
       <c r="M153" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -17496,7 +17496,7 @@
         <v>617</v>
       </c>
       <c r="B154" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C154" t="n">
         <v>42000</v>
@@ -17529,7 +17529,7 @@
         <v>2023.83</v>
       </c>
       <c r="M154" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N154" t="n">
         <v>0.00174172469660297</v>
@@ -17543,7 +17543,7 @@
         <v>620</v>
       </c>
       <c r="B155" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C155" t="n">
         <v>42000</v>
@@ -17576,7 +17576,7 @@
         <v>830.72</v>
       </c>
       <c r="M155" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N155" t="n">
         <v>0.000714928292013084</v>
@@ -17590,7 +17590,7 @@
         <v>623</v>
       </c>
       <c r="B156" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C156" t="n">
         <v>42000</v>
@@ -17623,7 +17623,7 @@
         <v>81720.73</v>
       </c>
       <c r="M156" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N156" t="n">
         <v>0.00115821440846327</v>
@@ -17637,7 +17637,7 @@
         <v>633</v>
       </c>
       <c r="B157" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>20556.47</v>
       </c>
       <c r="M157" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N157" t="n">
         <v>0.000580601757847926</v>
@@ -17684,7 +17684,7 @@
         <v>620</v>
       </c>
       <c r="B158" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -17717,7 +17717,7 @@
         <v>25000.55</v>
       </c>
       <c r="M158" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N158" t="n">
         <v>0.000786782970709349</v>
@@ -17731,7 +17731,7 @@
         <v>623</v>
       </c>
       <c r="B159" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -17764,7 +17764,7 @@
         <v>18220.13</v>
       </c>
       <c r="M159" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N159" t="n">
         <v>0.000574096771069273</v>
@@ -17778,7 +17778,7 @@
         <v>617</v>
       </c>
       <c r="B160" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -17811,7 +17811,7 @@
         <v>21009.48</v>
       </c>
       <c r="M160" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N160" t="n">
         <v>0.00144249758819049</v>
@@ -17825,7 +17825,7 @@
         <v>630</v>
       </c>
       <c r="B161" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -17858,7 +17858,7 @@
         <v>5904.72</v>
       </c>
       <c r="M161" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N161" t="n">
         <v>0.00099276108767015</v>
@@ -17872,7 +17872,7 @@
         <v>711</v>
       </c>
       <c r="B162" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -17905,7 +17905,7 @@
         <v>495.14</v>
       </c>
       <c r="M162" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N162" t="n">
         <v>0.0000797794205902986</v>
@@ -17919,7 +17919,7 @@
         <v>617</v>
       </c>
       <c r="B163" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -17952,7 +17952,7 @@
         <v>8364.87</v>
       </c>
       <c r="M163" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="N163" t="n">
         <v>0.00415629531488575</v>
@@ -17966,7 +17966,7 @@
         <v>620</v>
       </c>
       <c r="B164" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -17999,7 +17999,7 @@
         <v>2296.69</v>
       </c>
       <c r="M164" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N164" t="n">
         <v>0.000406826128782884</v>
@@ -18013,7 +18013,7 @@
         <v>623</v>
       </c>
       <c r="B165" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -18046,7 +18046,7 @@
         <v>1256.58</v>
       </c>
       <c r="M165" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="N165" t="n">
         <v>0.000202467607166444</v>
@@ -18060,7 +18060,7 @@
         <v>617</v>
       </c>
       <c r="B166" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -18093,7 +18093,7 @@
         <v>137.3</v>
       </c>
       <c r="M166" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N166" t="n">
         <v>0.000400267839868062</v>
@@ -18107,7 +18107,7 @@
         <v>620</v>
       </c>
       <c r="B167" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -18140,7 +18140,7 @@
         <v>611.87</v>
       </c>
       <c r="M167" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N167" t="n">
         <v>0.00106841505544075</v>
@@ -18154,7 +18154,7 @@
         <v>617</v>
       </c>
       <c r="B168" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -18187,7 +18187,7 @@
         <v>848.04</v>
       </c>
       <c r="M168" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N168" t="n">
         <v>0.00166599207235373</v>
@@ -18201,7 +18201,7 @@
         <v>617</v>
       </c>
       <c r="B169" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -18234,7 +18234,7 @@
         <v>0</v>
       </c>
       <c r="M169" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -18248,7 +18248,7 @@
         <v>630</v>
       </c>
       <c r="B170" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -18281,7 +18281,7 @@
         <v>49179.15</v>
       </c>
       <c r="M170" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="N170" t="n">
         <v>0.00222877541692292</v>
@@ -18295,7 +18295,7 @@
         <v>623</v>
       </c>
       <c r="B171" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -18328,7 +18328,7 @@
         <v>14560.01</v>
       </c>
       <c r="M171" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N171" t="n">
         <v>0.000499980615830754</v>
@@ -18342,7 +18342,7 @@
         <v>633</v>
       </c>
       <c r="B172" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>10637.15</v>
       </c>
       <c r="M172" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N172" t="n">
         <v>0.000481594395500676</v>
@@ -18389,7 +18389,7 @@
         <v>617</v>
       </c>
       <c r="B173" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -18422,7 +18422,7 @@
         <v>2078.03</v>
       </c>
       <c r="M173" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N173" t="n">
         <v>0.000874497920620695</v>
@@ -18436,7 +18436,7 @@
         <v>630</v>
       </c>
       <c r="B174" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C174" t="n">
         <v>2946</v>
@@ -18469,7 +18469,7 @@
         <v>410562.99</v>
       </c>
       <c r="M174" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N174" t="n">
         <v>0.00323061666992879</v>
@@ -18483,7 +18483,7 @@
         <v>633</v>
       </c>
       <c r="B175" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C175" t="n">
         <v>2946</v>
@@ -18516,7 +18516,7 @@
         <v>74904.9</v>
       </c>
       <c r="M175" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N175" t="n">
         <v>0.000581694766404867</v>
@@ -18530,7 +18530,7 @@
         <v>617</v>
       </c>
       <c r="B176" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -18563,7 +18563,7 @@
         <v>6602.76</v>
       </c>
       <c r="M176" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N176" t="n">
         <v>0.00206030107505947</v>
@@ -18577,7 +18577,7 @@
         <v>623</v>
       </c>
       <c r="B177" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -18610,7 +18610,7 @@
         <v>261334.28</v>
       </c>
       <c r="M177" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N177" t="n">
         <v>0.00241485299670158</v>
@@ -18624,7 +18624,7 @@
         <v>650</v>
       </c>
       <c r="B178" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C178" t="n">
         <v>2946</v>
@@ -18657,7 +18657,7 @@
         <v>2551600.06</v>
       </c>
       <c r="M178" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N178" t="n">
         <v>0.0198152014644477</v>
@@ -18671,7 +18671,7 @@
         <v>602</v>
       </c>
       <c r="B179" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -18704,7 +18704,7 @@
         <v>6115.54</v>
       </c>
       <c r="M179" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N179" t="n">
         <v>0.000845150432198468</v>
@@ -18718,7 +18718,7 @@
         <v>623</v>
       </c>
       <c r="B180" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -18751,7 +18751,7 @@
         <v>53689.12</v>
       </c>
       <c r="M180" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N180" t="n">
         <v>0.00126060449441983</v>
@@ -18765,7 +18765,7 @@
         <v>650</v>
       </c>
       <c r="B181" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -18798,7 +18798,7 @@
         <v>78315.38</v>
       </c>
       <c r="M181" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N181" t="n">
         <v>0.0108228092264516</v>
@@ -18812,7 +18812,7 @@
         <v>633</v>
       </c>
       <c r="B182" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>2231.12</v>
       </c>
       <c r="M182" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N182" t="n">
         <v>0.000325494834391043</v>
@@ -18859,7 +18859,7 @@
         <v>623</v>
       </c>
       <c r="B183" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -18892,7 +18892,7 @@
         <v>6215.83</v>
       </c>
       <c r="M183" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N183" t="n">
         <v>0.000232709055164417</v>
@@ -18906,7 +18906,7 @@
         <v>630</v>
       </c>
       <c r="B184" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -18939,7 +18939,7 @@
         <v>8348.49</v>
       </c>
       <c r="M184" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N184" t="n">
         <v>0.00218751196939958</v>
@@ -18953,7 +18953,7 @@
         <v>602</v>
       </c>
       <c r="B185" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -18986,7 +18986,7 @@
         <v>20184.71</v>
       </c>
       <c r="M185" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="N185" t="n">
         <v>0.00166840003970804</v>
@@ -19000,7 +19000,7 @@
         <v>633</v>
       </c>
       <c r="B186" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -19033,7 +19033,7 @@
         <v>9496.78</v>
       </c>
       <c r="M186" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N186" t="n">
         <v>0.000854232654440303</v>
@@ -19047,7 +19047,7 @@
         <v>650</v>
       </c>
       <c r="B187" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -19080,7 +19080,7 @@
         <v>254170.78</v>
       </c>
       <c r="M187" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N187" t="n">
         <v>0.0209922180065333</v>
@@ -19094,7 +19094,7 @@
         <v>617</v>
       </c>
       <c r="B188" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -19127,7 +19127,7 @@
         <v>5815.22</v>
       </c>
       <c r="M188" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N188" t="n">
         <v>0.00725218205858691</v>
@@ -19141,7 +19141,7 @@
         <v>620</v>
       </c>
       <c r="B189" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -19174,7 +19174,7 @@
         <v>1226.57</v>
       </c>
       <c r="M189" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N189" t="n">
         <v>0.00150242269170283</v>
@@ -19185,10 +19185,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B190" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -19221,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="M190" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N190" t="n">
         <v>0</v>
@@ -19235,7 +19235,7 @@
         <v>692</v>
       </c>
       <c r="B191" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -19268,7 +19268,7 @@
         <v>2.04000000000997</v>
       </c>
       <c r="M191" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N191" t="n">
         <v>0.00111029599230321</v>
@@ -19282,7 +19282,7 @@
         <v>620</v>
       </c>
       <c r="B192" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -19315,7 +19315,7 @@
         <v>0</v>
       </c>
       <c r="M192" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N192" t="n">
         <v>0.0014358406032333</v>
@@ -19329,7 +19329,7 @@
         <v>692</v>
       </c>
       <c r="B193" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -19362,7 +19362,7 @@
         <v>0</v>
       </c>
       <c r="M193" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N193" t="n">
         <v>0</v>
@@ -19376,7 +19376,7 @@
         <v>617</v>
       </c>
       <c r="B194" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -19409,7 +19409,7 @@
         <v>0</v>
       </c>
       <c r="M194" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N194" t="n">
         <v>0</v>
@@ -19423,7 +19423,7 @@
         <v>623</v>
       </c>
       <c r="B195" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C195" t="n">
         <v>2946</v>
@@ -19456,7 +19456,7 @@
         <v>152290.21</v>
       </c>
       <c r="M195" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N195" t="n">
         <v>0.00240042419442234</v>
@@ -19470,7 +19470,7 @@
         <v>623</v>
       </c>
       <c r="B196" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -19503,7 +19503,7 @@
         <v>21297.88</v>
       </c>
       <c r="M196" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N196" t="n">
         <v>0.000660030748533024</v>
@@ -19517,7 +19517,7 @@
         <v>650</v>
       </c>
       <c r="B197" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -19550,7 +19550,7 @@
         <v>218.17</v>
       </c>
       <c r="M197" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N197" t="n">
         <v>0.0107177615571776</v>
@@ -19564,7 +19564,7 @@
         <v>617</v>
       </c>
       <c r="B198" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -19597,7 +19597,7 @@
         <v>90.53</v>
       </c>
       <c r="M198" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N198" t="n">
         <v>0</v>
@@ -19611,7 +19611,7 @@
         <v>623</v>
       </c>
       <c r="B199" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -19644,7 +19644,7 @@
         <v>139724.79</v>
       </c>
       <c r="M199" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N199" t="n">
         <v>0.00196923373405998</v>
@@ -19692,10 +19692,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C2" t="n">
         <v>432495</v>
@@ -19715,25 +19715,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>1018</v>
       </c>
       <c r="B3" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C3" t="n">
-        <v>185271</v>
+        <v>145500</v>
       </c>
       <c r="D3" t="n">
-        <v>26551581</v>
+        <v>1578927684</v>
       </c>
       <c r="E3" t="n">
-        <v>2402124</v>
+        <v>25351386</v>
       </c>
       <c r="F3" t="n">
-        <v>25428078</v>
+        <v>1093919241</v>
       </c>
       <c r="G3" t="n">
-        <v>184168458</v>
+        <v>6470273937</v>
       </c>
     </row>
     <row r="4">
@@ -19741,45 +19741,45 @@
         <v>1018</v>
       </c>
       <c r="B4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C4" t="n">
-        <v>145500</v>
+        <v>27900</v>
       </c>
       <c r="D4" t="n">
-        <v>1578927684</v>
+        <v>210827166</v>
       </c>
       <c r="E4" t="n">
-        <v>25351386</v>
+        <v>2025189</v>
       </c>
       <c r="F4" t="n">
-        <v>1093919241</v>
+        <v>1261257672</v>
       </c>
       <c r="G4" t="n">
-        <v>6470273937</v>
+        <v>1284234318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B5" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C5" t="n">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210827166</v>
+        <v>16171974</v>
       </c>
       <c r="E5" t="n">
-        <v>2025189</v>
+        <v>771282</v>
       </c>
       <c r="F5" t="n">
-        <v>1261257672</v>
+        <v>101943</v>
       </c>
       <c r="G5" t="n">
-        <v>1284234318</v>
+        <v>778213752</v>
       </c>
     </row>
     <row r="6">
@@ -19787,22 +19787,22 @@
         <v>1021</v>
       </c>
       <c r="B6" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145500</v>
       </c>
       <c r="D6" t="n">
-        <v>16171974</v>
+        <v>1592065251</v>
       </c>
       <c r="E6" t="n">
-        <v>771282</v>
+        <v>27891447</v>
       </c>
       <c r="F6" t="n">
-        <v>101943</v>
+        <v>1158662736</v>
       </c>
       <c r="G6" t="n">
-        <v>778213752</v>
+        <v>6470618340</v>
       </c>
     </row>
     <row r="7">
@@ -19810,22 +19810,22 @@
         <v>1021</v>
       </c>
       <c r="B7" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C7" t="n">
-        <v>145500</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1592065251</v>
+        <v>333410175</v>
       </c>
       <c r="E7" t="n">
-        <v>27891447</v>
+        <v>965778</v>
       </c>
       <c r="F7" t="n">
-        <v>1158662736</v>
+        <v>3680352</v>
       </c>
       <c r="G7" t="n">
-        <v>6470618340</v>
+        <v>6998057466</v>
       </c>
     </row>
     <row r="8">
@@ -19833,64 +19833,64 @@
         <v>1021</v>
       </c>
       <c r="B8" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>333410175</v>
+        <v>51946125</v>
       </c>
       <c r="E8" t="n">
-        <v>965778</v>
+        <v>82428</v>
       </c>
       <c r="F8" t="n">
-        <v>3680352</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6998057466</v>
-      </c>
+        <v>7849038</v>
+      </c>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>1021</v>
       </c>
       <c r="B9" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>28860</v>
       </c>
       <c r="D9" t="n">
-        <v>51946125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>82428</v>
-      </c>
+        <v>9917088</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="n">
-        <v>7849038</v>
-      </c>
-      <c r="G9"/>
+        <v>91377</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78914331</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>1021</v>
       </c>
       <c r="B10" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C10" t="n">
-        <v>28860</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9917088</v>
-      </c>
-      <c r="E10"/>
+        <v>210060336</v>
+      </c>
+      <c r="E10" t="n">
+        <v>90864</v>
+      </c>
       <c r="F10" t="n">
-        <v>91377</v>
+        <v>142541433</v>
       </c>
       <c r="G10" t="n">
-        <v>78914331</v>
+        <v>750717024</v>
       </c>
     </row>
     <row r="11">
@@ -19898,43 +19898,43 @@
         <v>1021</v>
       </c>
       <c r="B11" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>210060336</v>
-      </c>
-      <c r="E11" t="n">
-        <v>90864</v>
-      </c>
+        <v>5495496</v>
+      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
-        <v>142541433</v>
+        <v>240022197</v>
       </c>
       <c r="G11" t="n">
-        <v>750717024</v>
+        <v>5987952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="B12" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5495496</v>
-      </c>
-      <c r="E12"/>
+        <v>17279574</v>
+      </c>
+      <c r="E12" t="n">
+        <v>896364</v>
+      </c>
       <c r="F12" t="n">
-        <v>240022197</v>
+        <v>236478</v>
       </c>
       <c r="G12" t="n">
-        <v>5987952</v>
+        <v>371137011</v>
       </c>
     </row>
     <row r="13">
@@ -19942,22 +19942,22 @@
         <v>1029</v>
       </c>
       <c r="B13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>185271</v>
       </c>
       <c r="D13" t="n">
-        <v>17279574</v>
+        <v>218898276</v>
       </c>
       <c r="E13" t="n">
-        <v>896364</v>
+        <v>4124595</v>
       </c>
       <c r="F13" t="n">
-        <v>236478</v>
+        <v>106130928</v>
       </c>
       <c r="G13" t="n">
-        <v>371137011</v>
+        <v>956013609</v>
       </c>
     </row>
     <row r="14">
@@ -19965,22 +19965,22 @@
         <v>1029</v>
       </c>
       <c r="B14" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C14" t="n">
-        <v>185271</v>
+        <v>145500</v>
       </c>
       <c r="D14" t="n">
-        <v>218898276</v>
+        <v>1592065251</v>
       </c>
       <c r="E14" t="n">
-        <v>4124595</v>
+        <v>27891447</v>
       </c>
       <c r="F14" t="n">
-        <v>106130928</v>
+        <v>1158662736</v>
       </c>
       <c r="G14" t="n">
-        <v>956013609</v>
+        <v>6470618340</v>
       </c>
     </row>
     <row r="15">
@@ -19988,22 +19988,22 @@
         <v>1029</v>
       </c>
       <c r="B15" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C15" t="n">
-        <v>145500</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1592065251</v>
+        <v>197740440</v>
       </c>
       <c r="E15" t="n">
-        <v>27891447</v>
+        <v>1552560</v>
       </c>
       <c r="F15" t="n">
-        <v>1158662736</v>
+        <v>190242264</v>
       </c>
       <c r="G15" t="n">
-        <v>6470618340</v>
+        <v>2046845169</v>
       </c>
     </row>
     <row r="16">
@@ -20011,22 +20011,22 @@
         <v>1029</v>
       </c>
       <c r="B16" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>197740440</v>
+        <v>16171974</v>
       </c>
       <c r="E16" t="n">
-        <v>1552560</v>
+        <v>771282</v>
       </c>
       <c r="F16" t="n">
-        <v>190242264</v>
+        <v>101943</v>
       </c>
       <c r="G16" t="n">
-        <v>2046845169</v>
+        <v>778213752</v>
       </c>
     </row>
     <row r="17">
@@ -20034,22 +20034,22 @@
         <v>1029</v>
       </c>
       <c r="B17" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16171974</v>
+        <v>324236898</v>
       </c>
       <c r="E17" t="n">
-        <v>771282</v>
+        <v>965778</v>
       </c>
       <c r="F17" t="n">
-        <v>101943</v>
+        <v>3630441</v>
       </c>
       <c r="G17" t="n">
-        <v>778213752</v>
+        <v>5776476507</v>
       </c>
     </row>
     <row r="18">
@@ -20057,22 +20057,22 @@
         <v>1029</v>
       </c>
       <c r="B18" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>324236898</v>
+        <v>78542883</v>
       </c>
       <c r="E18" t="n">
-        <v>965778</v>
+        <v>5255157</v>
       </c>
       <c r="F18" t="n">
-        <v>3630441</v>
+        <v>315448197</v>
       </c>
       <c r="G18" t="n">
-        <v>5776476507</v>
+        <v>308731269</v>
       </c>
     </row>
     <row r="19">
@@ -20080,22 +20080,22 @@
         <v>1029</v>
       </c>
       <c r="B19" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>78542883</v>
+        <v>41528946</v>
       </c>
       <c r="E19" t="n">
-        <v>5255157</v>
+        <v>2522550</v>
       </c>
       <c r="F19" t="n">
-        <v>315448197</v>
+        <v>8065305</v>
       </c>
       <c r="G19" t="n">
-        <v>308731269</v>
+        <v>277354425</v>
       </c>
     </row>
     <row r="20">
@@ -20103,22 +20103,22 @@
         <v>1029</v>
       </c>
       <c r="B20" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>41528946</v>
+        <v>6074319</v>
       </c>
       <c r="E20" t="n">
-        <v>2522550</v>
+        <v>1427643</v>
       </c>
       <c r="F20" t="n">
-        <v>8065305</v>
+        <v>1973700</v>
       </c>
       <c r="G20" t="n">
-        <v>277354425</v>
+        <v>796179330</v>
       </c>
     </row>
     <row r="21">
@@ -20126,96 +20126,96 @@
         <v>1029</v>
       </c>
       <c r="B21" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6074319</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1427643</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" t="n">
-        <v>1973700</v>
-      </c>
-      <c r="G21" t="n">
-        <v>796179330</v>
-      </c>
+        <v>1862391</v>
+      </c>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>1029</v>
       </c>
       <c r="B22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+        <v>1040</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>56375799</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3078474</v>
+      </c>
       <c r="F22" t="n">
-        <v>1862391</v>
-      </c>
-      <c r="G22"/>
+        <v>85169064</v>
+      </c>
+      <c r="G22" t="n">
+        <v>702232437</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>1029</v>
       </c>
       <c r="B23" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>56375799</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" t="n">
-        <v>3078474</v>
-      </c>
-      <c r="F23" t="n">
-        <v>85169064</v>
-      </c>
-      <c r="G23" t="n">
-        <v>702232437</v>
-      </c>
+        <v>88542</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>1029</v>
       </c>
       <c r="B24" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
+        <v>1042</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2586231</v>
+      </c>
       <c r="E24" t="n">
-        <v>88542</v>
+        <v>719439</v>
       </c>
       <c r="F24"/>
-      <c r="G24"/>
+      <c r="G24" t="n">
+        <v>429888</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>1029</v>
       </c>
       <c r="B25" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>2586231</v>
+        <v>8726016</v>
       </c>
       <c r="E25" t="n">
-        <v>719439</v>
-      </c>
-      <c r="F25"/>
+        <v>9132123</v>
+      </c>
+      <c r="F25" t="n">
+        <v>316503210</v>
+      </c>
       <c r="G25" t="n">
-        <v>429888</v>
+        <v>149800869</v>
       </c>
     </row>
     <row r="26">
@@ -20223,22 +20223,22 @@
         <v>1029</v>
       </c>
       <c r="B26" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>8726016</v>
+        <v>279958137</v>
       </c>
       <c r="E26" t="n">
-        <v>9132123</v>
+        <v>9531105</v>
       </c>
       <c r="F26" t="n">
-        <v>316503210</v>
+        <v>119405961</v>
       </c>
       <c r="G26" t="n">
-        <v>149800869</v>
+        <v>2460409197</v>
       </c>
     </row>
     <row r="27">
@@ -20246,22 +20246,22 @@
         <v>1029</v>
       </c>
       <c r="B27" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>279958137</v>
+        <v>327426</v>
       </c>
       <c r="E27" t="n">
-        <v>9531105</v>
+        <v>667896</v>
       </c>
       <c r="F27" t="n">
-        <v>119405961</v>
+        <v>37950</v>
       </c>
       <c r="G27" t="n">
-        <v>2460409197</v>
+        <v>18224322</v>
       </c>
     </row>
     <row r="28">
@@ -20269,22 +20269,22 @@
         <v>1029</v>
       </c>
       <c r="B28" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>327426</v>
+        <v>251484432</v>
       </c>
       <c r="E28" t="n">
-        <v>667896</v>
+        <v>21920301</v>
       </c>
       <c r="F28" t="n">
-        <v>37950</v>
+        <v>14550174</v>
       </c>
       <c r="G28" t="n">
-        <v>18224322</v>
+        <v>2835826653</v>
       </c>
     </row>
     <row r="29">
@@ -20292,22 +20292,22 @@
         <v>1029</v>
       </c>
       <c r="B29" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>251484432</v>
+        <v>37858389</v>
       </c>
       <c r="E29" t="n">
-        <v>21920301</v>
+        <v>3739377</v>
       </c>
       <c r="F29" t="n">
-        <v>14550174</v>
+        <v>42534438</v>
       </c>
       <c r="G29" t="n">
-        <v>2835826653</v>
+        <v>620297322</v>
       </c>
     </row>
     <row r="30">
@@ -20315,22 +20315,18 @@
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" t="n">
-        <v>37858389</v>
-      </c>
+      <c r="D30"/>
       <c r="E30" t="n">
-        <v>3739377</v>
-      </c>
-      <c r="F30" t="n">
-        <v>42534438</v>
-      </c>
+        <v>49638</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="n">
-        <v>620297322</v>
+        <v>170101836</v>
       </c>
     </row>
     <row r="31">
@@ -20338,18 +20334,22 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="n">
+        <v>367600389</v>
+      </c>
       <c r="E31" t="n">
-        <v>49638</v>
-      </c>
-      <c r="F31"/>
+        <v>738936</v>
+      </c>
+      <c r="F31" t="n">
+        <v>139204326</v>
+      </c>
       <c r="G31" t="n">
-        <v>170101836</v>
+        <v>2071142193</v>
       </c>
     </row>
     <row r="32">
@@ -20357,22 +20357,22 @@
         <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>367600389</v>
+        <v>55702899</v>
       </c>
       <c r="E32" t="n">
-        <v>738936</v>
+        <v>1971708</v>
       </c>
       <c r="F32" t="n">
-        <v>139204326</v>
+        <v>132183147</v>
       </c>
       <c r="G32" t="n">
-        <v>2071142193</v>
+        <v>268747110</v>
       </c>
     </row>
     <row r="33">
@@ -20380,22 +20380,22 @@
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>55702899</v>
+        <v>322108560</v>
       </c>
       <c r="E33" t="n">
-        <v>1971708</v>
+        <v>5309991</v>
       </c>
       <c r="F33" t="n">
-        <v>132183147</v>
+        <v>116670426</v>
       </c>
       <c r="G33" t="n">
-        <v>268747110</v>
+        <v>2381005212</v>
       </c>
     </row>
     <row r="34">
@@ -20403,22 +20403,16 @@
         <v>1029</v>
       </c>
       <c r="B34" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="n">
-        <v>322108560</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5309991</v>
-      </c>
-      <c r="F34" t="n">
-        <v>116670426</v>
-      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="n">
-        <v>2381005212</v>
+        <v>387546</v>
       </c>
     </row>
     <row r="35">
@@ -20426,58 +20420,64 @@
         <v>1029</v>
       </c>
       <c r="B35" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35" t="n">
-        <v>387546</v>
-      </c>
+      <c r="D35" t="n">
+        <v>51946125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>82428</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7849038</v>
+      </c>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>1029</v>
       </c>
       <c r="B36" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>28860</v>
       </c>
       <c r="D36" t="n">
-        <v>51946125</v>
-      </c>
-      <c r="E36" t="n">
-        <v>82428</v>
-      </c>
+        <v>9917088</v>
+      </c>
+      <c r="E36"/>
       <c r="F36" t="n">
-        <v>7849038</v>
-      </c>
-      <c r="G36"/>
+        <v>91377</v>
+      </c>
+      <c r="G36" t="n">
+        <v>78914331</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>1029</v>
       </c>
       <c r="B37" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C37" t="n">
-        <v>28860</v>
+        <v>42000</v>
       </c>
       <c r="D37" t="n">
-        <v>9917088</v>
-      </c>
-      <c r="E37"/>
+        <v>40816686</v>
+      </c>
+      <c r="E37" t="n">
+        <v>665385</v>
+      </c>
       <c r="F37" t="n">
-        <v>91377</v>
+        <v>5926014</v>
       </c>
       <c r="G37" t="n">
-        <v>78914331</v>
+        <v>256119099</v>
       </c>
     </row>
     <row r="38">
@@ -20485,22 +20485,22 @@
         <v>1029</v>
       </c>
       <c r="B38" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C38" t="n">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>40816686</v>
+        <v>469341978</v>
       </c>
       <c r="E38" t="n">
-        <v>665385</v>
+        <v>10634106</v>
       </c>
       <c r="F38" t="n">
-        <v>5926014</v>
+        <v>51144735</v>
       </c>
       <c r="G38" t="n">
-        <v>256119099</v>
+        <v>3651079179</v>
       </c>
     </row>
     <row r="39">
@@ -20508,22 +20508,22 @@
         <v>1029</v>
       </c>
       <c r="B39" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>469341978</v>
+        <v>60296688</v>
       </c>
       <c r="E39" t="n">
-        <v>10634106</v>
+        <v>1044</v>
       </c>
       <c r="F39" t="n">
-        <v>51144735</v>
+        <v>27081543</v>
       </c>
       <c r="G39" t="n">
-        <v>3651079179</v>
+        <v>77053047</v>
       </c>
     </row>
     <row r="40">
@@ -20531,22 +20531,22 @@
         <v>1029</v>
       </c>
       <c r="B40" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>60296688</v>
+        <v>221982492</v>
       </c>
       <c r="E40" t="n">
-        <v>1044</v>
+        <v>2565303</v>
       </c>
       <c r="F40" t="n">
-        <v>27081543</v>
+        <v>458933892</v>
       </c>
       <c r="G40" t="n">
-        <v>77053047</v>
+        <v>1471853421</v>
       </c>
     </row>
     <row r="41">
@@ -20554,22 +20554,22 @@
         <v>1029</v>
       </c>
       <c r="B41" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>221982492</v>
+        <v>238478856</v>
       </c>
       <c r="E41" t="n">
-        <v>2565303</v>
+        <v>2145009</v>
       </c>
       <c r="F41" t="n">
-        <v>458933892</v>
+        <v>94664937</v>
       </c>
       <c r="G41" t="n">
-        <v>1471853421</v>
+        <v>1579372023</v>
       </c>
     </row>
     <row r="42">
@@ -20577,22 +20577,22 @@
         <v>1029</v>
       </c>
       <c r="B42" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>238478856</v>
+        <v>42784320</v>
       </c>
       <c r="E42" t="n">
-        <v>2145009</v>
+        <v>190497</v>
       </c>
       <c r="F42" t="n">
-        <v>94664937</v>
+        <v>453945</v>
       </c>
       <c r="G42" t="n">
-        <v>1579372023</v>
+        <v>158966280</v>
       </c>
     </row>
     <row r="43">
@@ -20600,22 +20600,22 @@
         <v>1029</v>
       </c>
       <c r="B43" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>42784320</v>
+        <v>105801</v>
       </c>
       <c r="E43" t="n">
-        <v>190497</v>
+        <v>52962</v>
       </c>
       <c r="F43" t="n">
-        <v>453945</v>
+        <v>385053</v>
       </c>
       <c r="G43" t="n">
-        <v>158966280</v>
+        <v>5185680</v>
       </c>
     </row>
     <row r="44">
@@ -20623,22 +20623,22 @@
         <v>1029</v>
       </c>
       <c r="B44" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>105801</v>
+        <v>210060336</v>
       </c>
       <c r="E44" t="n">
-        <v>52962</v>
+        <v>90864</v>
       </c>
       <c r="F44" t="n">
-        <v>385053</v>
+        <v>142541433</v>
       </c>
       <c r="G44" t="n">
-        <v>5185680</v>
+        <v>750717024</v>
       </c>
     </row>
     <row r="45">
@@ -20646,22 +20646,22 @@
         <v>1029</v>
       </c>
       <c r="B45" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>210060336</v>
+        <v>59173905</v>
       </c>
       <c r="E45" t="n">
-        <v>90864</v>
+        <v>7796619</v>
       </c>
       <c r="F45" t="n">
-        <v>142541433</v>
+        <v>416209272</v>
       </c>
       <c r="G45" t="n">
-        <v>750717024</v>
+        <v>183053424</v>
       </c>
     </row>
     <row r="46">
@@ -20669,98 +20669,96 @@
         <v>1029</v>
       </c>
       <c r="B46" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="C46"/>
       <c r="D46" t="n">
-        <v>59173905</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7796619</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="E46"/>
       <c r="F46" t="n">
-        <v>416209272</v>
-      </c>
-      <c r="G46" t="n">
-        <v>183053424</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>1029</v>
       </c>
       <c r="B47" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C47"/>
+        <v>1065</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
       <c r="D47" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E47"/>
+        <v>70698072</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4005753</v>
+      </c>
       <c r="F47" t="n">
-        <v>315</v>
-      </c>
-      <c r="G47"/>
+        <v>38952690</v>
+      </c>
+      <c r="G47" t="n">
+        <v>464614572</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1029</v>
+        <v>692</v>
       </c>
       <c r="B48" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="n">
-        <v>70698072</v>
-      </c>
+      <c r="D48"/>
       <c r="E48" t="n">
-        <v>4005753</v>
-      </c>
-      <c r="F48" t="n">
-        <v>38952690</v>
-      </c>
-      <c r="G48" t="n">
-        <v>464614572</v>
-      </c>
+        <v>21081</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>692</v>
       </c>
       <c r="B49" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49"/>
-      <c r="E49" t="n">
-        <v>21081</v>
-      </c>
+      <c r="D49" t="n">
+        <v>4014609</v>
+      </c>
+      <c r="E49"/>
       <c r="F49"/>
-      <c r="G49"/>
+      <c r="G49" t="n">
+        <v>127532640</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>692</v>
       </c>
       <c r="B50" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>4014609</v>
-      </c>
-      <c r="E50"/>
+        <v>9814500</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1683</v>
+      </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>127532640</v>
+        <v>144033606</v>
       </c>
     </row>
     <row r="51">
@@ -20768,20 +20766,16 @@
         <v>692</v>
       </c>
       <c r="B51" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="n">
-        <v>9814500</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1683</v>
-      </c>
+      <c r="D51"/>
+      <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>144033606</v>
+        <v>62952465</v>
       </c>
     </row>
     <row r="52">
@@ -20789,16 +20783,14 @@
         <v>692</v>
       </c>
       <c r="B52" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>62952465</v>
+        <v>21569568</v>
       </c>
     </row>
     <row r="53">
@@ -20806,14 +20798,18 @@
         <v>692</v>
       </c>
       <c r="B53" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
+        <v>1071</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2342865</v>
+      </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>21569568</v>
+        <v>210464463</v>
       </c>
     </row>
     <row r="54">
@@ -20821,18 +20817,16 @@
         <v>692</v>
       </c>
       <c r="B54" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="C54"/>
       <c r="D54" t="n">
-        <v>2342865</v>
+        <v>3</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>210464463</v>
+        <v>19702779</v>
       </c>
     </row>
     <row r="55">
@@ -20840,16 +20834,16 @@
         <v>692</v>
       </c>
       <c r="B55" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
+        <v>1073</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>19702779</v>
+        <v>107829861</v>
       </c>
     </row>
     <row r="56">
@@ -20857,7 +20851,7 @@
         <v>692</v>
       </c>
       <c r="B56" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -20866,7 +20860,7 @@
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>107829861</v>
+        <v>78003411</v>
       </c>
     </row>
     <row r="57">
@@ -20874,50 +20868,48 @@
         <v>692</v>
       </c>
       <c r="B57" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57"/>
+      <c r="D57" t="n">
+        <v>30303432</v>
+      </c>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57" t="n">
-        <v>78003411</v>
-      </c>
+      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>692</v>
       </c>
       <c r="B58" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="C58"/>
       <c r="D58" t="n">
-        <v>30303432</v>
+        <v>3</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58"/>
+      <c r="G58" t="n">
+        <v>14955348</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>692</v>
       </c>
       <c r="B59" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C59"/>
-      <c r="D59" t="n">
-        <v>3</v>
-      </c>
+      <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>14955348</v>
+        <v>1061838</v>
       </c>
     </row>
     <row r="60">
@@ -20925,14 +20917,14 @@
         <v>692</v>
       </c>
       <c r="B60" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>1061838</v>
+        <v>3723510</v>
       </c>
     </row>
     <row r="61">
@@ -20940,14 +20932,16 @@
         <v>692</v>
       </c>
       <c r="B61" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C61"/>
+        <v>1079</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>3723510</v>
+        <v>28548384</v>
       </c>
     </row>
     <row r="62">
@@ -20955,7 +20949,7 @@
         <v>692</v>
       </c>
       <c r="B62" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -20964,7 +20958,7 @@
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>28548384</v>
+        <v>10541397</v>
       </c>
     </row>
     <row r="63">
@@ -20972,46 +20966,48 @@
         <v>692</v>
       </c>
       <c r="B63" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63"/>
+        <v>1081</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="n">
+        <v>12586359</v>
+      </c>
       <c r="E63"/>
       <c r="F63"/>
-      <c r="G63" t="n">
-        <v>10541397</v>
-      </c>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>692</v>
       </c>
       <c r="B64" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C64"/>
-      <c r="D64" t="n">
-        <v>12586359</v>
-      </c>
+      <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
-      <c r="G64"/>
+      <c r="G64" t="n">
+        <v>16494435</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>692</v>
       </c>
       <c r="B65" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C65"/>
-      <c r="D65"/>
+        <v>1083</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>16494435</v>
+        <v>112969995</v>
       </c>
     </row>
     <row r="66">
@@ -21019,18 +21015,14 @@
         <v>692</v>
       </c>
       <c r="B66" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>6</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>112969995</v>
+        <v>29631597</v>
       </c>
     </row>
     <row r="67">
@@ -21038,14 +21030,16 @@
         <v>692</v>
       </c>
       <c r="B67" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C67"/>
+        <v>1085</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>29631597</v>
+        <v>10304361</v>
       </c>
     </row>
     <row r="68">
@@ -21053,7 +21047,7 @@
         <v>692</v>
       </c>
       <c r="B68" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -21062,7 +21056,7 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>10304361</v>
+        <v>17033169</v>
       </c>
     </row>
     <row r="69">
@@ -21070,7 +21064,7 @@
         <v>692</v>
       </c>
       <c r="B69" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -21079,7 +21073,7 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>17033169</v>
+        <v>54884949</v>
       </c>
     </row>
     <row r="70">
@@ -21087,7 +21081,7 @@
         <v>692</v>
       </c>
       <c r="B70" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -21096,7 +21090,7 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>54884949</v>
+        <v>21373710</v>
       </c>
     </row>
     <row r="71">
@@ -21104,31 +21098,31 @@
         <v>692</v>
       </c>
       <c r="B71" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71"/>
+        <v>1089</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="n">
+        <v>9819390</v>
+      </c>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71" t="n">
-        <v>21373710</v>
-      </c>
+      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>692</v>
       </c>
       <c r="B72" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72" t="n">
-        <v>9819390</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72"/>
       <c r="E72"/>
-      <c r="F72"/>
+      <c r="F72" t="n">
+        <v>277358334</v>
+      </c>
       <c r="G72"/>
     </row>
     <row r="73">
@@ -21136,31 +21130,29 @@
         <v>692</v>
       </c>
       <c r="B73" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
+        <v>1091</v>
+      </c>
+      <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" t="n">
-        <v>277358334</v>
-      </c>
-      <c r="G73"/>
+      <c r="F73"/>
+      <c r="G73" t="n">
+        <v>24314913</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>692</v>
       </c>
       <c r="B74" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>24314913</v>
+        <v>80401941</v>
       </c>
     </row>
     <row r="75">
@@ -21168,14 +21160,16 @@
         <v>692</v>
       </c>
       <c r="B75" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C75"/>
+        <v>1093</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>80401941</v>
+        <v>23633208</v>
       </c>
     </row>
     <row r="76">
@@ -21183,7 +21177,7 @@
         <v>692</v>
       </c>
       <c r="B76" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -21192,7 +21186,7 @@
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>23633208</v>
+        <v>50671272</v>
       </c>
     </row>
     <row r="77">
@@ -21200,16 +21194,18 @@
         <v>692</v>
       </c>
       <c r="B77" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77"/>
+      <c r="D77" t="n">
+        <v>67791</v>
+      </c>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>50671272</v>
+        <v>36340536</v>
       </c>
     </row>
     <row r="78">
@@ -21217,35 +21213,37 @@
         <v>692</v>
       </c>
       <c r="B78" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>67791</v>
-      </c>
-      <c r="E78"/>
+        <v>1096</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>22125</v>
+      </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>36340536</v>
+        <v>895596</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>692</v>
+        <v>1097</v>
       </c>
       <c r="B79" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C79"/>
-      <c r="D79"/>
+        <v>1098</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3940260</v>
+      </c>
       <c r="E79" t="n">
-        <v>22125</v>
+        <v>752304</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>895596</v>
+        <v>15933378</v>
       </c>
     </row>
     <row r="80">
@@ -21253,60 +21251,60 @@
         <v>1097</v>
       </c>
       <c r="B80" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>3940260</v>
-      </c>
-      <c r="E80" t="n">
-        <v>752304</v>
-      </c>
+        <v>10153269</v>
+      </c>
+      <c r="E80"/>
       <c r="F80"/>
-      <c r="G80" t="n">
-        <v>15933378</v>
-      </c>
+      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>1097</v>
       </c>
       <c r="B81" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>10153269</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
+        <v>12134010</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2450484</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5399529</v>
+      </c>
+      <c r="G81" t="n">
+        <v>497844</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>1097</v>
       </c>
       <c r="B82" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>12134010</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2450484</v>
-      </c>
+        <v>24673812</v>
+      </c>
+      <c r="E82"/>
       <c r="F82" t="n">
-        <v>5399529</v>
+        <v>22528446</v>
       </c>
       <c r="G82" t="n">
-        <v>497844</v>
+        <v>28352442</v>
       </c>
     </row>
     <row r="83">
@@ -21314,20 +21312,18 @@
         <v>1097</v>
       </c>
       <c r="B83" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>24673812</v>
+        <v>14687520</v>
       </c>
       <c r="E83"/>
-      <c r="F83" t="n">
-        <v>22528446</v>
-      </c>
+      <c r="F83"/>
       <c r="G83" t="n">
-        <v>28352442</v>
+        <v>1813713</v>
       </c>
     </row>
     <row r="84">
@@ -21335,18 +21331,20 @@
         <v>1097</v>
       </c>
       <c r="B84" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>14687520</v>
+        <v>31579590</v>
       </c>
       <c r="E84"/>
-      <c r="F84"/>
+      <c r="F84" t="n">
+        <v>2416281</v>
+      </c>
       <c r="G84" t="n">
-        <v>1813713</v>
+        <v>4921263</v>
       </c>
     </row>
     <row r="85">
@@ -21354,20 +21352,18 @@
         <v>1097</v>
       </c>
       <c r="B85" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>31579590</v>
-      </c>
-      <c r="E85"/>
+        <v>1104</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85" t="n">
+        <v>672807</v>
+      </c>
       <c r="F85" t="n">
-        <v>2416281</v>
+        <v>240351204</v>
       </c>
       <c r="G85" t="n">
-        <v>4921263</v>
+        <v>333540</v>
       </c>
     </row>
     <row r="86">
@@ -21375,58 +21371,58 @@
         <v>1097</v>
       </c>
       <c r="B86" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86" t="n">
-        <v>672807</v>
-      </c>
+        <v>1105</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>67032294</v>
+      </c>
+      <c r="E86"/>
       <c r="F86" t="n">
-        <v>240351204</v>
-      </c>
-      <c r="G86" t="n">
-        <v>333540</v>
-      </c>
+        <v>2902086</v>
+      </c>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>1097</v>
       </c>
       <c r="B87" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>67032294</v>
+        <v>20697474</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="n">
-        <v>2902086</v>
-      </c>
-      <c r="G87"/>
+        <v>1438368</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7860804</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>1097</v>
       </c>
       <c r="B88" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>20697474</v>
+        <v>9888378</v>
       </c>
       <c r="E88"/>
-      <c r="F88" t="n">
-        <v>1438368</v>
-      </c>
+      <c r="F88"/>
       <c r="G88" t="n">
-        <v>7860804</v>
+        <v>6067329</v>
       </c>
     </row>
     <row r="89">
@@ -21434,56 +21430,58 @@
         <v>1097</v>
       </c>
       <c r="B89" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="C89"/>
       <c r="D89" t="n">
-        <v>9888378</v>
+        <v>14721972</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" t="n">
-        <v>6067329</v>
-      </c>
+      <c r="G89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>1097</v>
       </c>
       <c r="B90" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C90"/>
+        <v>1109</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
       <c r="D90" t="n">
-        <v>14721972</v>
-      </c>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
+        <v>2430234</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1335</v>
+      </c>
+      <c r="F90" t="n">
+        <v>23043726</v>
+      </c>
+      <c r="G90" t="n">
+        <v>592797</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>1097</v>
       </c>
       <c r="B91" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>2430234</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1335</v>
-      </c>
+        <v>2525850</v>
+      </c>
+      <c r="E91"/>
       <c r="F91" t="n">
-        <v>23043726</v>
+        <v>52140369</v>
       </c>
       <c r="G91" t="n">
-        <v>592797</v>
+        <v>1735194</v>
       </c>
     </row>
     <row r="92">
@@ -21491,138 +21489,140 @@
         <v>1097</v>
       </c>
       <c r="B92" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2525850</v>
+        <v>4481622</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="n">
-        <v>52140369</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1735194</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>1097</v>
       </c>
       <c r="B93" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="C93"/>
       <c r="D93" t="n">
-        <v>4481622</v>
+        <v>11766591</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="n">
-        <v>3</v>
-      </c>
-      <c r="G93"/>
+        <v>446229</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7511250</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>1097</v>
       </c>
       <c r="B94" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C94"/>
+        <v>1113</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
       <c r="D94" t="n">
-        <v>11766591</v>
+        <v>10616550</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="n">
-        <v>446229</v>
-      </c>
-      <c r="G94" t="n">
-        <v>7511250</v>
-      </c>
+        <v>1526793</v>
+      </c>
+      <c r="G94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>1097</v>
       </c>
       <c r="B95" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>10616550</v>
+        <v>14582493</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>1526793</v>
-      </c>
-      <c r="G95"/>
+        <v>5340729</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5971431</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>1097</v>
       </c>
       <c r="B96" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="C96"/>
       <c r="D96" t="n">
-        <v>14582493</v>
-      </c>
-      <c r="E96"/>
+        <v>939765</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1416</v>
+      </c>
       <c r="F96" t="n">
-        <v>5340729</v>
-      </c>
-      <c r="G96" t="n">
-        <v>5971431</v>
-      </c>
+        <v>51606507</v>
+      </c>
+      <c r="G96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>1097</v>
       </c>
       <c r="B97" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="n">
-        <v>939765</v>
+        <v>1404333</v>
       </c>
       <c r="E97" t="n">
-        <v>1416</v>
+        <v>193581</v>
       </c>
       <c r="F97" t="n">
-        <v>51606507</v>
-      </c>
-      <c r="G97"/>
+        <v>90003</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>1097</v>
       </c>
       <c r="B98" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C98"/>
+        <v>1117</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
       <c r="D98" t="n">
-        <v>1404333</v>
+        <v>41291679</v>
       </c>
       <c r="E98" t="n">
-        <v>193581</v>
+        <v>1038969</v>
       </c>
       <c r="F98" t="n">
-        <v>90003</v>
+        <v>80047638</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>15731025</v>
       </c>
     </row>
     <row r="99">
@@ -21630,22 +21630,16 @@
         <v>1097</v>
       </c>
       <c r="B99" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>41291679</v>
-      </c>
+        <v>1118</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
       <c r="E99" t="n">
-        <v>1038969</v>
-      </c>
-      <c r="F99" t="n">
-        <v>80047638</v>
-      </c>
+        <v>110142</v>
+      </c>
+      <c r="F99"/>
       <c r="G99" t="n">
-        <v>15731025</v>
+        <v>197907</v>
       </c>
     </row>
     <row r="100">
@@ -21653,16 +21647,20 @@
         <v>1097</v>
       </c>
       <c r="B100" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100" t="n">
-        <v>110142</v>
-      </c>
-      <c r="F100"/>
+        <v>1119</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>12233871</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="n">
+        <v>2560395</v>
+      </c>
       <c r="G100" t="n">
-        <v>197907</v>
+        <v>4284489</v>
       </c>
     </row>
     <row r="101">
@@ -21670,20 +21668,20 @@
         <v>1097</v>
       </c>
       <c r="B101" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>12233871</v>
+        <v>31799289</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="n">
-        <v>2560395</v>
+        <v>1333908</v>
       </c>
       <c r="G101" t="n">
-        <v>4284489</v>
+        <v>3335661</v>
       </c>
     </row>
     <row r="102">
@@ -21691,20 +21689,22 @@
         <v>1097</v>
       </c>
       <c r="B102" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>31799289</v>
-      </c>
-      <c r="E102"/>
+        <v>54767445</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1044</v>
+      </c>
       <c r="F102" t="n">
-        <v>1333908</v>
+        <v>25695873</v>
       </c>
       <c r="G102" t="n">
-        <v>3335661</v>
+        <v>2751387</v>
       </c>
     </row>
     <row r="103">
@@ -21712,79 +21712,73 @@
         <v>1097</v>
       </c>
       <c r="B103" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>54767445</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1044</v>
-      </c>
+        <v>10251423</v>
+      </c>
+      <c r="E103"/>
       <c r="F103" t="n">
-        <v>25695873</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2751387</v>
-      </c>
+        <v>114389439</v>
+      </c>
+      <c r="G103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>1097</v>
       </c>
       <c r="B104" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>27900</v>
       </c>
       <c r="D104" t="n">
-        <v>10251423</v>
-      </c>
-      <c r="E104"/>
+        <v>30293892</v>
+      </c>
+      <c r="E104" t="n">
+        <v>58524</v>
+      </c>
       <c r="F104" t="n">
-        <v>114389439</v>
-      </c>
-      <c r="G104"/>
+        <v>19556949</v>
+      </c>
+      <c r="G104" t="n">
+        <v>189756</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>1097</v>
       </c>
       <c r="B105" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C105" t="n">
-        <v>27900</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="C105"/>
       <c r="D105" t="n">
-        <v>30293892</v>
-      </c>
-      <c r="E105" t="n">
-        <v>58524</v>
-      </c>
-      <c r="F105" t="n">
-        <v>19556949</v>
-      </c>
-      <c r="G105" t="n">
-        <v>189756</v>
-      </c>
+        <v>1790370</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>1097</v>
       </c>
       <c r="B106" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
-        <v>1790370</v>
+        <v>701772</v>
       </c>
       <c r="E106"/>
-      <c r="F106"/>
+      <c r="F106" t="n">
+        <v>307995</v>
+      </c>
       <c r="G106"/>
     </row>
     <row r="107">
@@ -21792,15 +21786,13 @@
         <v>1097</v>
       </c>
       <c r="B107" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C107"/>
-      <c r="D107" t="n">
-        <v>701772</v>
-      </c>
+      <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="n">
-        <v>307995</v>
+        <v>396669</v>
       </c>
       <c r="G107"/>
     </row>
@@ -21809,35 +21801,39 @@
         <v>1097</v>
       </c>
       <c r="B108" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C108"/>
-      <c r="D108"/>
+        <v>1127</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>48103056</v>
+      </c>
       <c r="E108"/>
       <c r="F108" t="n">
-        <v>396669</v>
-      </c>
-      <c r="G108"/>
+        <v>97008</v>
+      </c>
+      <c r="G108" t="n">
+        <v>19596342</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>1097</v>
       </c>
       <c r="B109" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>48103056</v>
+        <v>1220706</v>
       </c>
       <c r="E109"/>
-      <c r="F109" t="n">
-        <v>97008</v>
-      </c>
+      <c r="F109"/>
       <c r="G109" t="n">
-        <v>19596342</v>
+        <v>147498</v>
       </c>
     </row>
     <row r="110">
@@ -21845,94 +21841,92 @@
         <v>1097</v>
       </c>
       <c r="B110" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1220706</v>
-      </c>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110" t="n">
-        <v>147498</v>
-      </c>
+        <v>78690</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1132266</v>
+      </c>
+      <c r="F110" t="n">
+        <v>23343525</v>
+      </c>
+      <c r="G110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>1097</v>
       </c>
       <c r="B111" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="C111"/>
       <c r="D111" t="n">
-        <v>78690</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1132266</v>
-      </c>
+        <v>9898230</v>
+      </c>
+      <c r="E111"/>
       <c r="F111" t="n">
-        <v>23343525</v>
-      </c>
-      <c r="G111"/>
+        <v>9998862</v>
+      </c>
+      <c r="G111" t="n">
+        <v>837177</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>1097</v>
       </c>
       <c r="B112" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C112"/>
-      <c r="D112" t="n">
-        <v>9898230</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112"/>
       <c r="E112"/>
       <c r="F112" t="n">
-        <v>9998862</v>
-      </c>
-      <c r="G112" t="n">
-        <v>837177</v>
-      </c>
+        <v>277358334</v>
+      </c>
+      <c r="G112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>1097</v>
       </c>
       <c r="B113" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
-      <c r="D113"/>
+      <c r="D113" t="n">
+        <v>2689308</v>
+      </c>
       <c r="E113"/>
-      <c r="F113" t="n">
-        <v>277358334</v>
-      </c>
-      <c r="G113"/>
+      <c r="F113"/>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
         <v>1097</v>
       </c>
       <c r="B114" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
+        <v>1133</v>
+      </c>
+      <c r="C114"/>
       <c r="D114" t="n">
-        <v>2689308</v>
+        <v>2356893</v>
       </c>
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>746478</v>
       </c>
     </row>
     <row r="115">
@@ -21940,32 +21934,36 @@
         <v>1097</v>
       </c>
       <c r="B115" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C115"/>
-      <c r="D115" t="n">
-        <v>2356893</v>
-      </c>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115" t="n">
-        <v>746478</v>
-      </c>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>5599995</v>
+      </c>
+      <c r="F115" t="n">
+        <v>248102454</v>
+      </c>
+      <c r="G115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>1097</v>
       </c>
       <c r="B116" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C116"/>
-      <c r="D116"/>
+        <v>1135</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>402495</v>
+      </c>
       <c r="E116" t="n">
-        <v>5599995</v>
+        <v>37002</v>
       </c>
       <c r="F116" t="n">
-        <v>248102454</v>
+        <v>28871007</v>
       </c>
       <c r="G116"/>
     </row>
@@ -21974,39 +21972,41 @@
         <v>1097</v>
       </c>
       <c r="B117" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="C117"/>
       <c r="D117" t="n">
-        <v>402495</v>
+        <v>448917</v>
       </c>
       <c r="E117" t="n">
-        <v>37002</v>
-      </c>
-      <c r="F117" t="n">
-        <v>28871007</v>
-      </c>
-      <c r="G117"/>
+        <v>137289</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>6918</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1097</v>
+        <v>1137</v>
       </c>
       <c r="B118" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C118"/>
+        <v>1138</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
       <c r="D118" t="n">
-        <v>448917</v>
+        <v>38098212</v>
       </c>
       <c r="E118" t="n">
-        <v>137289</v>
-      </c>
-      <c r="F118"/>
+        <v>32822232</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1605334107</v>
+      </c>
       <c r="G118" t="n">
-        <v>6918</v>
+        <v>834838773</v>
       </c>
     </row>
     <row r="119">
@@ -22014,22 +22014,22 @@
         <v>1137</v>
       </c>
       <c r="B119" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>38098212</v>
+        <v>156873420</v>
       </c>
       <c r="E119" t="n">
-        <v>32822232</v>
+        <v>58513860</v>
       </c>
       <c r="F119" t="n">
-        <v>1605334107</v>
+        <v>40056390</v>
       </c>
       <c r="G119" t="n">
-        <v>834838773</v>
+        <v>1147407507</v>
       </c>
     </row>
     <row r="120">
@@ -22037,22 +22037,22 @@
         <v>1137</v>
       </c>
       <c r="B120" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>156873420</v>
+        <v>785790</v>
       </c>
       <c r="E120" t="n">
-        <v>58513860</v>
+        <v>37150938</v>
       </c>
       <c r="F120" t="n">
-        <v>40056390</v>
+        <v>2987808</v>
       </c>
       <c r="G120" t="n">
-        <v>1147407507</v>
+        <v>104217492</v>
       </c>
     </row>
     <row r="121">
@@ -22060,22 +22060,22 @@
         <v>1137</v>
       </c>
       <c r="B121" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>785790</v>
+        <v>648123</v>
       </c>
       <c r="E121" t="n">
-        <v>37150938</v>
+        <v>31381254</v>
       </c>
       <c r="F121" t="n">
-        <v>2987808</v>
+        <v>28309746</v>
       </c>
       <c r="G121" t="n">
-        <v>104217492</v>
+        <v>55277904</v>
       </c>
     </row>
     <row r="122">
@@ -22083,22 +22083,22 @@
         <v>1137</v>
       </c>
       <c r="B122" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>648123</v>
+        <v>971261163</v>
       </c>
       <c r="E122" t="n">
-        <v>31381254</v>
+        <v>22199301</v>
       </c>
       <c r="F122" t="n">
-        <v>28309746</v>
+        <v>419804463</v>
       </c>
       <c r="G122" t="n">
-        <v>55277904</v>
+        <v>5962338345</v>
       </c>
     </row>
     <row r="123">
@@ -22106,22 +22106,22 @@
         <v>1137</v>
       </c>
       <c r="B123" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>971261163</v>
+        <v>16161237</v>
       </c>
       <c r="E123" t="n">
-        <v>22199301</v>
+        <v>119758299</v>
       </c>
       <c r="F123" t="n">
-        <v>419804463</v>
+        <v>829959</v>
       </c>
       <c r="G123" t="n">
-        <v>5962338345</v>
+        <v>397650168</v>
       </c>
     </row>
     <row r="124">
@@ -22129,22 +22129,22 @@
         <v>1137</v>
       </c>
       <c r="B124" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>16161237</v>
+        <v>353261091</v>
       </c>
       <c r="E124" t="n">
-        <v>119758299</v>
+        <v>46956384</v>
       </c>
       <c r="F124" t="n">
-        <v>829959</v>
+        <v>169469061</v>
       </c>
       <c r="G124" t="n">
-        <v>397650168</v>
+        <v>4224547791</v>
       </c>
     </row>
     <row r="125">
@@ -22152,22 +22152,22 @@
         <v>1137</v>
       </c>
       <c r="B125" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D125" t="n">
-        <v>353261091</v>
+        <v>48980046</v>
       </c>
       <c r="E125" t="n">
-        <v>46956384</v>
+        <v>59598222</v>
       </c>
       <c r="F125" t="n">
-        <v>169469061</v>
+        <v>470031822</v>
       </c>
       <c r="G125" t="n">
-        <v>4224547791</v>
+        <v>280629756</v>
       </c>
     </row>
     <row r="126">
@@ -22175,22 +22175,22 @@
         <v>1137</v>
       </c>
       <c r="B126" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C126" t="n">
-        <v>18</v>
+        <v>145500</v>
       </c>
       <c r="D126" t="n">
-        <v>48980046</v>
+        <v>875323281</v>
       </c>
       <c r="E126" t="n">
-        <v>59598222</v>
+        <v>13982877</v>
       </c>
       <c r="F126" t="n">
-        <v>470031822</v>
+        <v>393782502</v>
       </c>
       <c r="G126" t="n">
-        <v>280629756</v>
+        <v>2744070837</v>
       </c>
     </row>
     <row r="127">
@@ -22198,22 +22198,22 @@
         <v>1137</v>
       </c>
       <c r="B127" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C127" t="n">
-        <v>145500</v>
+        <v>185271</v>
       </c>
       <c r="D127" t="n">
-        <v>875323281</v>
+        <v>516319692</v>
       </c>
       <c r="E127" t="n">
-        <v>13982877</v>
+        <v>19324863</v>
       </c>
       <c r="F127" t="n">
-        <v>393782502</v>
+        <v>646751226</v>
       </c>
       <c r="G127" t="n">
-        <v>2744070837</v>
+        <v>3522363720</v>
       </c>
     </row>
     <row r="128">
@@ -22221,22 +22221,22 @@
         <v>1137</v>
       </c>
       <c r="B128" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C128" t="n">
-        <v>185271</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>516319692</v>
+        <v>40203819</v>
       </c>
       <c r="E128" t="n">
-        <v>19324863</v>
+        <v>85259979</v>
       </c>
       <c r="F128" t="n">
-        <v>646751226</v>
+        <v>49855365</v>
       </c>
       <c r="G128" t="n">
-        <v>3522363720</v>
+        <v>804942171</v>
       </c>
     </row>
     <row r="129">
@@ -22244,22 +22244,22 @@
         <v>1137</v>
       </c>
       <c r="B129" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>28860</v>
       </c>
       <c r="D129" t="n">
-        <v>40203819</v>
+        <v>126993321</v>
       </c>
       <c r="E129" t="n">
-        <v>85259979</v>
+        <v>48995352</v>
       </c>
       <c r="F129" t="n">
-        <v>49855365</v>
+        <v>561871740</v>
       </c>
       <c r="G129" t="n">
-        <v>804942171</v>
+        <v>662064270</v>
       </c>
     </row>
     <row r="130">
@@ -22267,22 +22267,22 @@
         <v>1137</v>
       </c>
       <c r="B130" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C130" t="n">
-        <v>28860</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>126993321</v>
+        <v>340303731</v>
       </c>
       <c r="E130" t="n">
-        <v>48995352</v>
+        <v>23159970</v>
       </c>
       <c r="F130" t="n">
-        <v>561871740</v>
+        <v>317266095</v>
       </c>
       <c r="G130" t="n">
-        <v>662064270</v>
+        <v>4044630399</v>
       </c>
     </row>
     <row r="131">
@@ -22290,22 +22290,22 @@
         <v>1137</v>
       </c>
       <c r="B131" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="D131" t="n">
-        <v>340303731</v>
+        <v>50465805</v>
       </c>
       <c r="E131" t="n">
-        <v>23159970</v>
+        <v>64757337</v>
       </c>
       <c r="F131" t="n">
-        <v>317266095</v>
+        <v>8650617</v>
       </c>
       <c r="G131" t="n">
-        <v>4044630399</v>
+        <v>248058501</v>
       </c>
     </row>
     <row r="132">
@@ -22313,22 +22313,22 @@
         <v>1137</v>
       </c>
       <c r="B132" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C132" t="n">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>50465805</v>
+        <v>705904875</v>
       </c>
       <c r="E132" t="n">
-        <v>64757337</v>
+        <v>22021563</v>
       </c>
       <c r="F132" t="n">
-        <v>8650617</v>
+        <v>61051782</v>
       </c>
       <c r="G132" t="n">
-        <v>248058501</v>
+        <v>5585572941</v>
       </c>
     </row>
     <row r="133">
@@ -22336,22 +22336,22 @@
         <v>1137</v>
       </c>
       <c r="B133" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>705904875</v>
+        <v>18134430</v>
       </c>
       <c r="E133" t="n">
-        <v>22021563</v>
+        <v>10770426</v>
       </c>
       <c r="F133" t="n">
-        <v>61051782</v>
+        <v>1396337634</v>
       </c>
       <c r="G133" t="n">
-        <v>5585572941</v>
+        <v>402905784</v>
       </c>
     </row>
     <row r="134">
@@ -22359,22 +22359,22 @@
         <v>1137</v>
       </c>
       <c r="B134" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>18134430</v>
+        <v>749633220</v>
       </c>
       <c r="E134" t="n">
-        <v>10770426</v>
+        <v>21069384</v>
       </c>
       <c r="F134" t="n">
-        <v>1396337634</v>
+        <v>478920060</v>
       </c>
       <c r="G134" t="n">
-        <v>402905784</v>
+        <v>3586921839</v>
       </c>
     </row>
     <row r="135">
@@ -22382,22 +22382,22 @@
         <v>1137</v>
       </c>
       <c r="B135" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>749633220</v>
+        <v>873276</v>
       </c>
       <c r="E135" t="n">
-        <v>21069384</v>
+        <v>40612104</v>
       </c>
       <c r="F135" t="n">
-        <v>478920060</v>
+        <v>5803617</v>
       </c>
       <c r="G135" t="n">
-        <v>3586921839</v>
+        <v>121476324</v>
       </c>
     </row>
     <row r="136">
@@ -22405,22 +22405,22 @@
         <v>1137</v>
       </c>
       <c r="B136" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>873276</v>
+        <v>558007077</v>
       </c>
       <c r="E136" t="n">
-        <v>40612104</v>
+        <v>21368769</v>
       </c>
       <c r="F136" t="n">
-        <v>5803617</v>
+        <v>172736451</v>
       </c>
       <c r="G136" t="n">
-        <v>121476324</v>
+        <v>9920257200</v>
       </c>
     </row>
     <row r="137">
@@ -22428,22 +22428,22 @@
         <v>1137</v>
       </c>
       <c r="B137" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>2946</v>
       </c>
       <c r="D137" t="n">
-        <v>558007077</v>
+        <v>11245143</v>
       </c>
       <c r="E137" t="n">
-        <v>21368769</v>
+        <v>59827515</v>
       </c>
       <c r="F137" t="n">
-        <v>172736451</v>
+        <v>4768698</v>
       </c>
       <c r="G137" t="n">
-        <v>9920257200</v>
+        <v>60077169</v>
       </c>
     </row>
     <row r="138">
@@ -22451,22 +22451,22 @@
         <v>1137</v>
       </c>
       <c r="B138" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C138" t="n">
-        <v>2946</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>11245143</v>
+        <v>93168249</v>
       </c>
       <c r="E138" t="n">
-        <v>59827515</v>
+        <v>27251961</v>
       </c>
       <c r="F138" t="n">
-        <v>4768698</v>
+        <v>291489333</v>
       </c>
       <c r="G138" t="n">
-        <v>60077169</v>
+        <v>331670457</v>
       </c>
     </row>
     <row r="139">
@@ -22474,22 +22474,20 @@
         <v>1137</v>
       </c>
       <c r="B139" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>93168249</v>
+        <v>468510</v>
       </c>
       <c r="E139" t="n">
-        <v>27251961</v>
-      </c>
-      <c r="F139" t="n">
-        <v>291489333</v>
-      </c>
+        <v>67300419</v>
+      </c>
+      <c r="F139"/>
       <c r="G139" t="n">
-        <v>331670457</v>
+        <v>36022311</v>
       </c>
     </row>
     <row r="140">
@@ -22497,42 +22495,21 @@
         <v>1137</v>
       </c>
       <c r="B140" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>468510</v>
+        <v>45332835</v>
       </c>
       <c r="E140" t="n">
-        <v>67300419</v>
-      </c>
-      <c r="F140"/>
+        <v>97136535</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10865517</v>
+      </c>
       <c r="G140" t="n">
-        <v>36022311</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>45332835</v>
-      </c>
-      <c r="E141" t="n">
-        <v>97136535</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10865517</v>
-      </c>
-      <c r="G141" t="n">
         <v>335966169</v>
       </c>
     </row>
